--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.427115301029097</v>
+        <v>8.427115301029039</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.119750770816871</v>
+        <v>8.119750770816916</v>
       </c>
       <c r="E2">
-        <v>16.90315218913169</v>
+        <v>16.90315218913171</v>
       </c>
       <c r="F2">
-        <v>76.92755030715233</v>
+        <v>76.92755030715234</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10.21552346506164</v>
+        <v>10.21552346506175</v>
       </c>
       <c r="I2">
-        <v>16.37621919186651</v>
+        <v>16.37621919186653</v>
       </c>
       <c r="J2">
-        <v>72.96915422526186</v>
+        <v>72.96915422526187</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.933029253991028</v>
+        <v>7.933029253991053</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.207211430523662</v>
+        <v>7.207211430523616</v>
       </c>
       <c r="E3">
-        <v>15.32663392683639</v>
+        <v>15.32663392683635</v>
       </c>
       <c r="F3">
-        <v>69.29292413824197</v>
+        <v>69.2929241382415</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.94202868880419</v>
+        <v>10.94202868880418</v>
       </c>
       <c r="I3">
-        <v>14.80023415380046</v>
+        <v>14.8002341538004</v>
       </c>
       <c r="J3">
-        <v>66.58934599079788</v>
+        <v>66.58934599079753</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.61224874372366</v>
+        <v>7.612248743723675</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.674866301105878</v>
+        <v>6.674866301105915</v>
       </c>
       <c r="E4">
-        <v>14.37996647174306</v>
+        <v>14.37996647174297</v>
       </c>
       <c r="F4">
-        <v>64.79909689283586</v>
+        <v>64.79909689283595</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11.37672195522137</v>
+        <v>11.37672195522125</v>
       </c>
       <c r="I4">
-        <v>13.86043250651278</v>
+        <v>13.86043250651277</v>
       </c>
       <c r="J4">
-        <v>62.70554534974892</v>
+        <v>62.7055453497489</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.477242222973021</v>
+        <v>7.477242222973094</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.461946819242535</v>
+        <v>6.461946819242513</v>
       </c>
       <c r="E5">
-        <v>13.99541765382165</v>
+        <v>13.99541765382161</v>
       </c>
       <c r="F5">
-        <v>62.99501186984323</v>
+        <v>62.99501186984313</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>11.55253500564936</v>
       </c>
       <c r="I5">
-        <v>13.48003633863326</v>
+        <v>13.48003633863324</v>
       </c>
       <c r="J5">
-        <v>61.11714803091643</v>
+        <v>61.11714803091649</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.454567900298854</v>
+        <v>7.454567900298843</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.426767699638897</v>
+        <v>6.426767699638939</v>
       </c>
       <c r="E6">
-        <v>13.93154634453711</v>
+        <v>13.93154634453712</v>
       </c>
       <c r="F6">
-        <v>62.69661876459624</v>
+        <v>62.69661876459644</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.58168231171736</v>
+        <v>11.58168231171729</v>
       </c>
       <c r="I6">
-        <v>13.41692997923583</v>
+        <v>13.41692997923585</v>
       </c>
       <c r="J6">
-        <v>60.85273803403341</v>
+        <v>60.85273803403346</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.610445248141308</v>
+        <v>7.610445248141325</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,22 +611,22 @@
         <v>6.671981662468491</v>
       </c>
       <c r="E7">
-        <v>14.37477963905938</v>
+        <v>14.37477963905933</v>
       </c>
       <c r="F7">
-        <v>64.77467836108121</v>
+        <v>64.77467836108086</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.37909681649339</v>
+        <v>11.37909681649342</v>
       </c>
       <c r="I7">
-        <v>13.85529649389782</v>
+        <v>13.85529649389781</v>
       </c>
       <c r="J7">
-        <v>62.68416149704866</v>
+        <v>62.68416149704843</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.260434271681099</v>
+        <v>8.260434271681104</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.797027874920712</v>
+        <v>7.797027874920706</v>
       </c>
       <c r="E8">
-        <v>16.35202009526047</v>
+        <v>16.35202009526052</v>
       </c>
       <c r="F8">
-        <v>74.238469951784</v>
+        <v>74.23846995178425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10.46954554526043</v>
+        <v>10.46954554526038</v>
       </c>
       <c r="I8">
-        <v>15.82369624361487</v>
+        <v>15.82369624361492</v>
       </c>
       <c r="J8">
-        <v>70.75180928965375</v>
+        <v>70.75180928965392</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E9">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F9">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I9">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J9">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E10">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F10">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I10">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J10">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E11">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F11">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I11">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J11">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E12">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F12">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I12">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J12">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E13">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F13">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I13">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J13">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E14">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F14">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I14">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J14">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E15">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F15">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I15">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J15">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E16">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F16">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I16">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J16">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E17">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F17">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I17">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J17">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E18">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F18">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I18">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J18">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E19">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F19">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I19">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J19">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E20">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F20">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I20">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J20">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E21">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F21">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I21">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J21">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E22">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F22">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I22">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J22">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E23">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F23">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I23">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J23">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E24">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F24">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I24">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J24">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.388145418867223</v>
+        <v>9.388145418867289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.51026548511482</v>
+        <v>10.51026548511484</v>
       </c>
       <c r="E25">
-        <v>20.79069250044774</v>
+        <v>20.79069250044768</v>
       </c>
       <c r="F25">
-        <v>96.40955468072791</v>
+        <v>96.40955468072761</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8.44825466465428</v>
+        <v>8.448254664654216</v>
       </c>
       <c r="I25">
-        <v>20.32389098352999</v>
+        <v>20.32389098352998</v>
       </c>
       <c r="J25">
-        <v>88.16966649031002</v>
+        <v>88.16966649030982</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.427115301029039</v>
+        <v>8.427115301029097</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.119750770816916</v>
+        <v>8.119750770816871</v>
       </c>
       <c r="E2">
-        <v>16.90315218913171</v>
+        <v>16.90315218913169</v>
       </c>
       <c r="F2">
-        <v>76.92755030715234</v>
+        <v>76.92755030715233</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10.21552346506175</v>
+        <v>10.21552346506164</v>
       </c>
       <c r="I2">
-        <v>16.37621919186653</v>
+        <v>16.37621919186651</v>
       </c>
       <c r="J2">
-        <v>72.96915422526187</v>
+        <v>72.96915422526186</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.933029253991053</v>
+        <v>7.933029253991028</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.207211430523616</v>
+        <v>7.207211430523662</v>
       </c>
       <c r="E3">
-        <v>15.32663392683635</v>
+        <v>15.32663392683639</v>
       </c>
       <c r="F3">
-        <v>69.2929241382415</v>
+        <v>69.29292413824197</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.94202868880418</v>
+        <v>10.94202868880419</v>
       </c>
       <c r="I3">
-        <v>14.8002341538004</v>
+        <v>14.80023415380046</v>
       </c>
       <c r="J3">
-        <v>66.58934599079753</v>
+        <v>66.58934599079788</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.612248743723675</v>
+        <v>7.61224874372366</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.674866301105915</v>
+        <v>6.674866301105878</v>
       </c>
       <c r="E4">
-        <v>14.37996647174297</v>
+        <v>14.37996647174306</v>
       </c>
       <c r="F4">
-        <v>64.79909689283595</v>
+        <v>64.79909689283586</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11.37672195522125</v>
+        <v>11.37672195522137</v>
       </c>
       <c r="I4">
-        <v>13.86043250651277</v>
+        <v>13.86043250651278</v>
       </c>
       <c r="J4">
-        <v>62.7055453497489</v>
+        <v>62.70554534974892</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.477242222973094</v>
+        <v>7.477242222973021</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.461946819242513</v>
+        <v>6.461946819242535</v>
       </c>
       <c r="E5">
-        <v>13.99541765382161</v>
+        <v>13.99541765382165</v>
       </c>
       <c r="F5">
-        <v>62.99501186984313</v>
+        <v>62.99501186984323</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>11.55253500564936</v>
       </c>
       <c r="I5">
-        <v>13.48003633863324</v>
+        <v>13.48003633863326</v>
       </c>
       <c r="J5">
-        <v>61.11714803091649</v>
+        <v>61.11714803091643</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.454567900298843</v>
+        <v>7.454567900298854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.426767699638939</v>
+        <v>6.426767699638897</v>
       </c>
       <c r="E6">
-        <v>13.93154634453712</v>
+        <v>13.93154634453711</v>
       </c>
       <c r="F6">
-        <v>62.69661876459644</v>
+        <v>62.69661876459624</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.58168231171729</v>
+        <v>11.58168231171736</v>
       </c>
       <c r="I6">
-        <v>13.41692997923585</v>
+        <v>13.41692997923583</v>
       </c>
       <c r="J6">
-        <v>60.85273803403346</v>
+        <v>60.85273803403341</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.610445248141325</v>
+        <v>7.610445248141308</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,22 +611,22 @@
         <v>6.671981662468491</v>
       </c>
       <c r="E7">
-        <v>14.37477963905933</v>
+        <v>14.37477963905938</v>
       </c>
       <c r="F7">
-        <v>64.77467836108086</v>
+        <v>64.77467836108121</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.37909681649342</v>
+        <v>11.37909681649339</v>
       </c>
       <c r="I7">
-        <v>13.85529649389781</v>
+        <v>13.85529649389782</v>
       </c>
       <c r="J7">
-        <v>62.68416149704843</v>
+        <v>62.68416149704866</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.260434271681104</v>
+        <v>8.260434271681099</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.797027874920706</v>
+        <v>7.797027874920712</v>
       </c>
       <c r="E8">
-        <v>16.35202009526052</v>
+        <v>16.35202009526047</v>
       </c>
       <c r="F8">
-        <v>74.23846995178425</v>
+        <v>74.238469951784</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10.46954554526038</v>
+        <v>10.46954554526043</v>
       </c>
       <c r="I8">
-        <v>15.82369624361492</v>
+        <v>15.82369624361487</v>
       </c>
       <c r="J8">
-        <v>70.75180928965392</v>
+        <v>70.75180928965375</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E9">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F9">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I9">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J9">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E10">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F10">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I10">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J10">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E11">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F11">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I11">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J11">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E12">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F12">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I12">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J12">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E13">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F13">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I13">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J13">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E14">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F14">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I14">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J14">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E15">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F15">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I15">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J15">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E16">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F16">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I16">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J16">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E17">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F17">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I17">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J17">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E18">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F18">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I18">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J18">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E19">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F19">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I19">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J19">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E20">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F20">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I20">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J20">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E21">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F21">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I21">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J21">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E22">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F22">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I22">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J22">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E23">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F23">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I23">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J23">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E24">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F24">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I24">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J24">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.388145418867289</v>
+        <v>9.388145418867223</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.51026548511484</v>
+        <v>10.51026548511482</v>
       </c>
       <c r="E25">
-        <v>20.79069250044768</v>
+        <v>20.79069250044774</v>
       </c>
       <c r="F25">
-        <v>96.40955468072761</v>
+        <v>96.40955468072791</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8.448254664654216</v>
+        <v>8.44825466465428</v>
       </c>
       <c r="I25">
-        <v>20.32389098352998</v>
+        <v>20.32389098352999</v>
       </c>
       <c r="J25">
-        <v>88.16966649030982</v>
+        <v>88.16966649031002</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.427115301029097</v>
+        <v>8.430352319523458</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.119750770816871</v>
+        <v>7.943861405730508</v>
       </c>
       <c r="E2">
-        <v>16.90315218913169</v>
+        <v>16.81399083480814</v>
       </c>
       <c r="F2">
-        <v>76.92755030715233</v>
+        <v>76.21767273651862</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.833676850737284</v>
       </c>
       <c r="H2">
-        <v>10.21552346506164</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.37621919186651</v>
+        <v>10.34304247293201</v>
       </c>
       <c r="J2">
-        <v>72.96915422526186</v>
+        <v>16.24289620273348</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>72.40744399838039</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.933029253991028</v>
+        <v>7.936737382167887</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.207211430523662</v>
+        <v>7.049284988873694</v>
       </c>
       <c r="E3">
-        <v>15.32663392683639</v>
+        <v>15.25548591942519</v>
       </c>
       <c r="F3">
-        <v>69.29292413824197</v>
+        <v>68.73503232778882</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.881525556298394</v>
       </c>
       <c r="H3">
-        <v>10.94202868880419</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.80023415380046</v>
+        <v>11.06610753742573</v>
       </c>
       <c r="J3">
-        <v>66.58934599079788</v>
+        <v>14.68695243519029</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>66.09988536224253</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.61224874372366</v>
+        <v>7.616414170239468</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.674866301105878</v>
+        <v>6.527006846145815</v>
       </c>
       <c r="E4">
-        <v>14.37996647174306</v>
+        <v>14.31774153873207</v>
       </c>
       <c r="F4">
-        <v>64.79909689283586</v>
+        <v>64.32790076524016</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.908998148467942</v>
       </c>
       <c r="H4">
-        <v>11.37672195522137</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>13.86043250651278</v>
+        <v>11.49948174960825</v>
       </c>
       <c r="J4">
-        <v>62.70554534974892</v>
+        <v>13.75715863707659</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>62.25345048078638</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.477242222973021</v>
+        <v>7.481630032788387</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.461946819242535</v>
+        <v>6.318112808993289</v>
       </c>
       <c r="E5">
-        <v>13.99541765382165</v>
+        <v>13.9365042495734</v>
       </c>
       <c r="F5">
-        <v>62.99501186984323</v>
+        <v>62.55873669028252</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.919886362368383</v>
       </c>
       <c r="H5">
-        <v>11.55253500564936</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>13.48003633863326</v>
+        <v>11.67488069632794</v>
       </c>
       <c r="J5">
-        <v>61.11714803091643</v>
+        <v>13.38049221430893</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>60.67926896297393</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.454567900298854</v>
+        <v>7.45899470535764</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.426767699638897</v>
+        <v>6.283600867853228</v>
       </c>
       <c r="E6">
-        <v>13.93154634453711</v>
+        <v>13.87316736821195</v>
       </c>
       <c r="F6">
-        <v>62.69661876459624</v>
+        <v>62.26614353404049</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.921679625818083</v>
       </c>
       <c r="H6">
-        <v>11.58168231171736</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13.41692997923583</v>
+        <v>11.70396523915119</v>
       </c>
       <c r="J6">
-        <v>60.85273803403341</v>
+        <v>13.31798861766127</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>60.41717324990962</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.610445248141308</v>
+        <v>7.614613533156861</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.671981662468491</v>
+        <v>6.524176646695429</v>
       </c>
       <c r="E7">
-        <v>14.37477963905938</v>
+        <v>14.31260048258935</v>
       </c>
       <c r="F7">
-        <v>64.77467836108121</v>
+        <v>64.30395361306088</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.909146054241234</v>
       </c>
       <c r="H7">
-        <v>11.37909681649339</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>13.85529649389782</v>
+        <v>11.50185059606826</v>
       </c>
       <c r="J7">
-        <v>62.68416149704866</v>
+        <v>13.75207412203616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>62.2322617352018</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.260434271681099</v>
+        <v>8.263793425090588</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.797027874920712</v>
+        <v>7.627664389236203</v>
       </c>
       <c r="E8">
-        <v>16.35202009526047</v>
+        <v>16.26968867549414</v>
       </c>
       <c r="F8">
-        <v>74.238469951784</v>
+        <v>73.58337790729621</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.850700263103986</v>
       </c>
       <c r="H8">
-        <v>10.46954554526043</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.82369624361487</v>
+        <v>10.59565018375837</v>
       </c>
       <c r="J8">
-        <v>70.75180928965375</v>
+        <v>15.69794909326808</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>70.2170750322112</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E9">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F9">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H9">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J9">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E10">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F10">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H10">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J10">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E11">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F11">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H11">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J11">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E12">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F12">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H12">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J12">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E13">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F13">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H13">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J13">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E14">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F14">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H14">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J14">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E15">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F15">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H15">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J15">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E16">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F16">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H16">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J16">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E17">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F17">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H17">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J17">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E18">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F18">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H18">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J18">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E19">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F19">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H19">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J19">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E20">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F20">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H20">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J20">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E21">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F21">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H21">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J21">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E22">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F22">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H22">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J22">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E23">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F23">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H23">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J23">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E24">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F24">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H24">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J24">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.388145418867223</v>
+        <v>9.392209297801072</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.51026548511482</v>
+        <v>10.26961556369698</v>
       </c>
       <c r="E25">
-        <v>20.79069250044774</v>
+        <v>20.62272190671085</v>
       </c>
       <c r="F25">
-        <v>96.40955468072791</v>
+        <v>95.18024668799397</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.705079208475644</v>
       </c>
       <c r="H25">
-        <v>8.44825466465428</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>20.32389098352999</v>
+        <v>8.598190116429381</v>
       </c>
       <c r="J25">
-        <v>88.16966649031002</v>
+        <v>20.10444451664783</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>87.3165203269031</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.430352319523458</v>
+        <v>15.16851275363258</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.943861405730508</v>
+        <v>9.525064437206247</v>
       </c>
       <c r="E2">
-        <v>16.81399083480814</v>
+        <v>22.73839430376061</v>
       </c>
       <c r="F2">
-        <v>76.21767273651862</v>
+        <v>63.10767102630932</v>
       </c>
       <c r="G2">
-        <v>1.833676850737284</v>
+        <v>2.028740585687415</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.34304247293201</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.24289620273348</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>72.40744399838039</v>
+        <v>30.08114667565964</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.644270892289656</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.98326719330752</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.936737382167887</v>
+        <v>14.41389020065467</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.049284988873694</v>
+        <v>9.076478487383978</v>
       </c>
       <c r="E3">
-        <v>15.25548591942519</v>
+        <v>21.4086282210375</v>
       </c>
       <c r="F3">
-        <v>68.73503232778882</v>
+        <v>59.05447700971555</v>
       </c>
       <c r="G3">
-        <v>1.881525556298394</v>
+        <v>2.048783138775673</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.06610753742573</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.68695243519029</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.09988536224253</v>
+        <v>27.83697283081949</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.02599556181778</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.53318139909244</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.616414170239468</v>
+        <v>13.94693518183208</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.527006846145815</v>
+        <v>8.803348949691978</v>
       </c>
       <c r="E4">
-        <v>14.31774153873207</v>
+        <v>20.57779229632167</v>
       </c>
       <c r="F4">
-        <v>64.32790076524016</v>
+        <v>56.5276224497747</v>
       </c>
       <c r="G4">
-        <v>1.908998148467942</v>
+        <v>2.061153416478544</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.49948174960825</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.75715863707659</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>62.25345048078638</v>
+        <v>26.40715854944937</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.63129613499139</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.26131816127275</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.481630032788387</v>
+        <v>13.7558710401145</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.318112808993289</v>
+        <v>8.692535769300546</v>
       </c>
       <c r="E5">
-        <v>13.9365042495734</v>
+        <v>20.23506689668325</v>
       </c>
       <c r="F5">
-        <v>62.55873669028252</v>
+        <v>55.48781916882661</v>
       </c>
       <c r="G5">
-        <v>1.919886362368383</v>
+        <v>2.066222710993662</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.67488069632794</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.38049221430893</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>60.67926896297393</v>
+        <v>25.81066047027139</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.466486127756433</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.1516989315845</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.45899470535764</v>
+        <v>13.72410309798243</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.283600867853228</v>
+        <v>8.674162974897978</v>
       </c>
       <c r="E6">
-        <v>13.87316736821195</v>
+        <v>20.17789326881092</v>
       </c>
       <c r="F6">
-        <v>62.26614353404049</v>
+        <v>55.31454432379169</v>
       </c>
       <c r="G6">
-        <v>1.921679625818083</v>
+        <v>2.067066497427184</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.70396523915119</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.31798861766127</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>60.41717324990962</v>
+        <v>25.7107555651972</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.438875317514601</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.13356884527676</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.614613533156861</v>
+        <v>13.94436134905257</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.524176646695429</v>
+        <v>8.801852594091187</v>
       </c>
       <c r="E7">
-        <v>14.31260048258935</v>
+        <v>20.57318762406338</v>
       </c>
       <c r="F7">
-        <v>64.30395361306088</v>
+        <v>56.51364051742092</v>
       </c>
       <c r="G7">
-        <v>1.909146054241234</v>
+        <v>2.061221653271979</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.50185059606826</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.75207412203616</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>62.2322617352018</v>
+        <v>26.39917096245531</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.629089724631465</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.25983500256133</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.263793425090588</v>
+        <v>14.9091295331125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.627664389236203</v>
+        <v>9.369846498177594</v>
       </c>
       <c r="E8">
-        <v>16.26968867549414</v>
+        <v>22.28250103895467</v>
       </c>
       <c r="F8">
-        <v>73.58337790729621</v>
+        <v>61.7176335177</v>
       </c>
       <c r="G8">
-        <v>1.850700263103986</v>
+        <v>2.035645881856031</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.59565018375837</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.69794909326808</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>70.2170750322112</v>
+        <v>29.31761160301068</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.434104005821567</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.8271590135695</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.392209297801072</v>
+        <v>16.77002354267801</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.26961556369698</v>
+        <v>10.5086444853734</v>
       </c>
       <c r="E9">
-        <v>20.62272190671085</v>
+        <v>25.55326024489759</v>
       </c>
       <c r="F9">
-        <v>95.18024668799397</v>
+        <v>71.66520351213082</v>
       </c>
       <c r="G9">
-        <v>1.705079208475644</v>
+        <v>1.985334536859631</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>87.3165203269031</v>
+        <v>34.67184959285127</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.902745285678922</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.24167671094389</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.392209297801072</v>
+        <v>18.12121082323908</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.26961556369698</v>
+        <v>11.37512488084726</v>
       </c>
       <c r="E10">
-        <v>20.62272190671085</v>
+        <v>27.96888083851467</v>
       </c>
       <c r="F10">
-        <v>95.18024668799397</v>
+        <v>79.02954588402123</v>
       </c>
       <c r="G10">
-        <v>1.705079208475644</v>
+        <v>1.947099668003512</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>87.3165203269031</v>
+        <v>38.45591039524023</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.9316388829874</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.61716090217008</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.392209297801072</v>
+        <v>18.7499836262979</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.26961556369698</v>
+        <v>11.78109772531801</v>
       </c>
       <c r="E11">
-        <v>20.62272190671085</v>
+        <v>29.09104012488582</v>
       </c>
       <c r="F11">
-        <v>95.18024668799397</v>
+        <v>82.47132350003811</v>
       </c>
       <c r="G11">
-        <v>1.705079208475644</v>
+        <v>1.929064917465851</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>87.3165203269031</v>
+        <v>40.16805931741616</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.39403174396658</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.23070978336851</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.392209297801072</v>
+        <v>19.02419526123654</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.26961556369698</v>
+        <v>11.93718906551581</v>
       </c>
       <c r="E12">
-        <v>20.62272190671085</v>
+        <v>29.52176815931343</v>
       </c>
       <c r="F12">
-        <v>95.18024668799397</v>
+        <v>83.78181885803767</v>
       </c>
       <c r="G12">
-        <v>1.705079208475644</v>
+        <v>1.922101233907452</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>87.3165203269031</v>
+        <v>40.81775007582879</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.56891017126899</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.46195323285894</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.392209297801072</v>
+        <v>18.965186613106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.26961556369698</v>
+        <v>11.90345400601027</v>
       </c>
       <c r="E13">
-        <v>20.62272190671085</v>
+        <v>29.42869780295649</v>
       </c>
       <c r="F13">
-        <v>95.18024668799397</v>
+        <v>83.49916448082044</v>
       </c>
       <c r="G13">
-        <v>1.705079208475644</v>
+        <v>1.923607774040706</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>87.3165203269031</v>
+        <v>40.67771657870317</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.53124532612345</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.41218696037358</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.392209297801072</v>
+        <v>18.77256580798554</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.26961556369698</v>
+        <v>11.7938875559641</v>
       </c>
       <c r="E14">
-        <v>20.62272190671085</v>
+        <v>29.12634340577551</v>
       </c>
       <c r="F14">
-        <v>95.18024668799397</v>
+        <v>82.57896077732724</v>
       </c>
       <c r="G14">
-        <v>1.705079208475644</v>
+        <v>1.928494990667143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>87.3165203269031</v>
+        <v>40.22146473234602</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.40841945572777</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.24975181205313</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.392209297801072</v>
+        <v>18.65442728291412</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.26961556369698</v>
+        <v>11.72710567301781</v>
       </c>
       <c r="E15">
-        <v>20.62272190671085</v>
+        <v>28.94198301463941</v>
       </c>
       <c r="F15">
-        <v>95.18024668799397</v>
+        <v>82.01641791986839</v>
       </c>
       <c r="G15">
-        <v>1.705079208475644</v>
+        <v>1.931469591198451</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>87.3165203269031</v>
+        <v>39.94226452774633</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.33317710645669</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.15013577200383</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.392209297801072</v>
+        <v>18.08110523021573</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.26961556369698</v>
+        <v>11.34888254074107</v>
       </c>
       <c r="E16">
-        <v>20.62272190671085</v>
+        <v>27.89620493930423</v>
       </c>
       <c r="F16">
-        <v>95.18024668799397</v>
+        <v>78.80531587918384</v>
       </c>
       <c r="G16">
-        <v>1.705079208475644</v>
+        <v>1.948262055581555</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>87.3165203269031</v>
+        <v>38.34404171538522</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.90135350622509</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.57687115632652</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.392209297801072</v>
+        <v>17.72958042922206</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.26961556369698</v>
+        <v>11.12028096719614</v>
       </c>
       <c r="E17">
-        <v>20.62272190671085</v>
+        <v>27.2621232883299</v>
       </c>
       <c r="F17">
-        <v>95.18024668799397</v>
+        <v>76.84241441049646</v>
       </c>
       <c r="G17">
-        <v>1.705079208475644</v>
+        <v>1.95837315501956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>87.3165203269031</v>
+        <v>37.36287953705645</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.63536636143108</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.22248785111505</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.392209297801072</v>
+        <v>17.52729004961432</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.26961556369698</v>
+        <v>10.98985613005607</v>
       </c>
       <c r="E18">
-        <v>20.62272190671085</v>
+        <v>26.89942420485035</v>
       </c>
       <c r="F18">
-        <v>95.18024668799397</v>
+        <v>75.72282515056659</v>
       </c>
       <c r="G18">
-        <v>1.705079208475644</v>
+        <v>1.964131521599795</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>87.3165203269031</v>
+        <v>36.79747425852145</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.48180147918424</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.01746290022066</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.392209297801072</v>
+        <v>17.45877077883299</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.26961556369698</v>
+        <v>10.94586211630833</v>
       </c>
       <c r="E19">
-        <v>20.62272190671085</v>
+        <v>26.77690304230978</v>
       </c>
       <c r="F19">
-        <v>95.18024668799397</v>
+        <v>75.3548487248363</v>
       </c>
       <c r="G19">
-        <v>1.705079208475644</v>
+        <v>1.966072457777395</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>87.3165203269031</v>
+        <v>36.60578554617403</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.42969267862516</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.94782293560935</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.392209297801072</v>
+        <v>17.76700907678349</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.26961556369698</v>
+        <v>11.14450214056028</v>
       </c>
       <c r="E20">
-        <v>20.62272190671085</v>
+        <v>27.32939929610811</v>
       </c>
       <c r="F20">
-        <v>95.18024668799397</v>
+        <v>77.05122565756535</v>
       </c>
       <c r="G20">
-        <v>1.705079208475644</v>
+        <v>1.95730300417613</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>87.3165203269031</v>
+        <v>37.46741949190953</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.66373701031358</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.26033186008875</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.392209297801072</v>
+        <v>18.82917369262068</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.26961556369698</v>
+        <v>11.82599942450061</v>
       </c>
       <c r="E21">
-        <v>20.62272190671085</v>
+        <v>29.21497151358359</v>
       </c>
       <c r="F21">
-        <v>95.18024668799397</v>
+        <v>82.84900462270312</v>
       </c>
       <c r="G21">
-        <v>1.705079208475644</v>
+        <v>1.927063542472833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>87.3165203269031</v>
+        <v>40.35541528725297</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.44449672404436</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.29748647128121</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.392209297801072</v>
+        <v>19.62564585208801</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.26961556369698</v>
+        <v>12.28564170203644</v>
       </c>
       <c r="E22">
-        <v>20.62272190671085</v>
+        <v>30.4828523531608</v>
       </c>
       <c r="F22">
-        <v>95.18024668799397</v>
+        <v>86.68361530409004</v>
       </c>
       <c r="G22">
-        <v>1.705079208475644</v>
+        <v>1.90648727326595</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>87.3165203269031</v>
+        <v>42.25259252740022</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.95390932504401</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.96940849505291</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.392209297801072</v>
+        <v>19.20097446527664</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.26961556369698</v>
+        <v>12.03873297014238</v>
       </c>
       <c r="E23">
-        <v>20.62272190671085</v>
+        <v>29.8018680249316</v>
       </c>
       <c r="F23">
-        <v>95.18024668799397</v>
+        <v>84.63074918343901</v>
       </c>
       <c r="G23">
-        <v>1.705079208475644</v>
+        <v>1.917561223431155</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>87.3165203269031</v>
+        <v>41.23802871741991</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.68185753139987</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.61106176001172</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.392209297801072</v>
+        <v>17.75008821786888</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.26961556369698</v>
+        <v>11.13354867582592</v>
       </c>
       <c r="E24">
-        <v>20.62272190671085</v>
+        <v>27.29897824531763</v>
       </c>
       <c r="F24">
-        <v>95.18024668799397</v>
+        <v>76.95682065730432</v>
       </c>
       <c r="G24">
-        <v>1.705079208475644</v>
+        <v>1.957786986574512</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>87.3165203269031</v>
+        <v>37.42016128551959</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.65091269222766</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.24322663366579</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.392209297801072</v>
+        <v>16.26995025489339</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.26961556369698</v>
+        <v>10.19670640986218</v>
       </c>
       <c r="E25">
-        <v>20.62272190671085</v>
+        <v>24.6717376101257</v>
       </c>
       <c r="F25">
-        <v>95.18024668799397</v>
+        <v>68.99324063284335</v>
       </c>
       <c r="G25">
-        <v>1.705079208475644</v>
+        <v>1.999067427454532</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.598190116429381</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.10444451664783</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>87.3165203269031</v>
+        <v>33.25610379159414</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.515688414006501</v>
       </c>
       <c r="M25">
+        <v>12.72085300190758</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.16851275363258</v>
+        <v>24.31785756501662</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.525064437206247</v>
+        <v>2.34972013534523</v>
       </c>
       <c r="E2">
-        <v>22.73839430376061</v>
+        <v>31.35800337974204</v>
       </c>
       <c r="F2">
-        <v>63.10767102630932</v>
+        <v>33.21936882378015</v>
       </c>
       <c r="G2">
-        <v>2.028740585687415</v>
+        <v>1.972485176699832</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>69.43069910385765</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.08114667565964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.644270892289656</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.98326719330752</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>26.43978069555541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.41389020065467</v>
+        <v>22.68411345225605</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.076478487383978</v>
+        <v>2.252862348009557</v>
       </c>
       <c r="E3">
-        <v>21.4086282210375</v>
+        <v>28.97648187263919</v>
       </c>
       <c r="F3">
-        <v>59.05447700971555</v>
+        <v>30.78999478642793</v>
       </c>
       <c r="G3">
-        <v>2.048783138775673</v>
+        <v>1.98298446118674</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>64.78771038057241</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.83697283081949</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.02599556181778</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.53318139909244</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>24.488499581227</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.94693518183208</v>
+        <v>21.62318182639429</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.803348949691978</v>
+        <v>2.193806291917562</v>
       </c>
       <c r="E4">
-        <v>20.57779229632167</v>
+        <v>27.4576849346444</v>
       </c>
       <c r="F4">
-        <v>56.5276224497747</v>
+        <v>29.23296184086118</v>
       </c>
       <c r="G4">
-        <v>2.061153416478544</v>
+        <v>1.989542951437232</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>61.7702325409574</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.40715854944937</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.63129613499139</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.26131816127275</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>23.23684182374441</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.7558710401145</v>
+        <v>21.17618423455038</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.692535769300546</v>
+        <v>2.169796820415624</v>
       </c>
       <c r="E5">
-        <v>20.23506689668325</v>
+        <v>26.82386341189575</v>
       </c>
       <c r="F5">
-        <v>55.48781916882661</v>
+        <v>28.58168610131687</v>
       </c>
       <c r="G5">
-        <v>2.066222710993662</v>
+        <v>1.992247343678627</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>60.49838825984555</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.81066047027139</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.466486127756433</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.1516989315845</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>22.71298257078602</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.72410309798243</v>
+        <v>21.10107177556358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.674162974897978</v>
+        <v>2.165812207870618</v>
       </c>
       <c r="E6">
-        <v>20.17789326881092</v>
+        <v>26.71769931539487</v>
       </c>
       <c r="F6">
-        <v>55.31454432379169</v>
+        <v>28.47252089774414</v>
       </c>
       <c r="G6">
-        <v>2.067066497427184</v>
+        <v>1.992698422672596</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>60.28464309963406</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.7107555651972</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.438875317514601</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.13356884527676</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>22.62515391665235</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.94436134905257</v>
+        <v>21.6172129738281</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.801852594091187</v>
+        <v>2.193482321617106</v>
       </c>
       <c r="E7">
-        <v>20.57318762406338</v>
+        <v>27.44919817488972</v>
       </c>
       <c r="F7">
-        <v>56.51364051742092</v>
+        <v>29.2242468066048</v>
       </c>
       <c r="G7">
-        <v>2.061221653271979</v>
+        <v>1.989579290728049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>61.75325121813994</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.39917096245531</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.629089724631465</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.25983500256133</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>23.22983314973489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.9091295331125</v>
+        <v>23.76646345961786</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.369846498177594</v>
+        <v>2.31620602578425</v>
       </c>
       <c r="E8">
-        <v>22.28250103895467</v>
+        <v>30.54815235421995</v>
       </c>
       <c r="F8">
-        <v>61.7176335177</v>
+        <v>32.39507205034557</v>
       </c>
       <c r="G8">
-        <v>2.035645881856031</v>
+        <v>1.976084409734664</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>67.86420339647036</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.31761160301068</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.434104005821567</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.8271590135695</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>25.77788376372133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.77002354267801</v>
+        <v>27.52843021193161</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.5086444853734</v>
+        <v>2.562807521672415</v>
       </c>
       <c r="E9">
-        <v>25.55326024489759</v>
+        <v>36.21211963455751</v>
       </c>
       <c r="F9">
-        <v>71.66520351213082</v>
+        <v>38.11286333711389</v>
       </c>
       <c r="G9">
-        <v>1.985334536859631</v>
+        <v>1.950322133379234</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>78.54004445614619</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.67184959285127</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.902745285678922</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.24167671094389</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>30.36699090932279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.12121082323908</v>
+        <v>30.02515941378266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.37512488084726</v>
+        <v>2.752223080666011</v>
       </c>
       <c r="E10">
-        <v>27.96888083851467</v>
+        <v>40.18027455303738</v>
       </c>
       <c r="F10">
-        <v>79.02954588402123</v>
+        <v>42.04084519015982</v>
       </c>
       <c r="G10">
-        <v>1.947099668003512</v>
+        <v>1.931517324779007</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>85.60880529061056</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.45591039524023</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.9316388829874</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.61716090217008</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>33.51877322859591</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.7499836262979</v>
+        <v>31.10503410527765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.78109772531801</v>
+        <v>2.841551368769165</v>
       </c>
       <c r="E11">
-        <v>29.09104012488582</v>
+        <v>41.96009371619358</v>
       </c>
       <c r="F11">
-        <v>82.47132350003811</v>
+        <v>43.77766396158039</v>
       </c>
       <c r="G11">
-        <v>1.929064917465851</v>
+        <v>1.922905058533718</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>88.66174843512327</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.16805931741616</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.39403174396658</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.23070978336851</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>34.9127806164402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.02419526123654</v>
+        <v>31.50609682796117</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.93718906551581</v>
+        <v>2.875980977148886</v>
       </c>
       <c r="E12">
-        <v>29.52176815931343</v>
+        <v>42.63217003938001</v>
       </c>
       <c r="F12">
-        <v>83.78181885803767</v>
+        <v>44.42910347968064</v>
       </c>
       <c r="G12">
-        <v>1.922101233907452</v>
+        <v>1.919626819093136</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>89.7949056628761</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>40.81775007582879</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.56891017126899</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.46195323285894</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>35.43574939600594</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.965186613106</v>
+        <v>31.42006755568597</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.90345400601027</v>
+        <v>2.868536388806514</v>
       </c>
       <c r="E13">
-        <v>29.42869780295649</v>
+        <v>42.48747916994569</v>
       </c>
       <c r="F13">
-        <v>83.49916448082044</v>
+        <v>44.28906556110414</v>
       </c>
       <c r="G13">
-        <v>1.923607774040706</v>
+        <v>1.920333757189702</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>89.55187185858674</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>40.67771657870317</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.53124532612345</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.41218696037358</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>35.32332264407044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.77256580798554</v>
+        <v>31.13818630349792</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.7938875559641</v>
+        <v>2.844370855340157</v>
       </c>
       <c r="E14">
-        <v>29.12634340577551</v>
+        <v>42.01541264766664</v>
       </c>
       <c r="F14">
-        <v>82.57896077732724</v>
+        <v>43.83137760790595</v>
       </c>
       <c r="G14">
-        <v>1.928494990667143</v>
+        <v>1.92263575136847</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>88.75543065175417</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.22146473234602</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.40841945572777</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.24975181205313</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>34.95589883823121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.65442728291412</v>
+        <v>30.96450739298534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.72710567301781</v>
+        <v>2.829652280497045</v>
       </c>
       <c r="E15">
-        <v>28.94198301463941</v>
+        <v>41.72606855470212</v>
       </c>
       <c r="F15">
-        <v>82.01641791986839</v>
+        <v>43.55024687919731</v>
       </c>
       <c r="G15">
-        <v>1.931469591198451</v>
+        <v>1.924043294858125</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>88.26461613887521</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>39.94226452774633</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.33317710645669</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.15013577200383</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>34.73022805662522</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.08110523021573</v>
+        <v>29.95347700689892</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.34888254074107</v>
+        <v>2.746460802471977</v>
       </c>
       <c r="E16">
-        <v>27.89620493930423</v>
+        <v>40.06359001551278</v>
       </c>
       <c r="F16">
-        <v>78.80531587918384</v>
+        <v>41.92640926738876</v>
       </c>
       <c r="G16">
-        <v>1.948262055581555</v>
+        <v>1.932078291152787</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>85.40605400812093</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.34404171538522</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.90135350622509</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.57687115632652</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>33.42693701927526</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72958042922206</v>
+        <v>29.31904709826843</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.12028096719614</v>
+        <v>2.696330603022409</v>
       </c>
       <c r="E17">
-        <v>27.2621232883299</v>
+        <v>39.03835436402788</v>
       </c>
       <c r="F17">
-        <v>76.84241441049646</v>
+        <v>40.91803401276293</v>
       </c>
       <c r="G17">
-        <v>1.95837315501956</v>
+        <v>1.936987037635568</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>83.61107613539413</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.36287953705645</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.63536636143108</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.22248785111505</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>32.61775505244245</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.52729004961432</v>
+        <v>28.94886706821209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.98985613005607</v>
+        <v>2.667784052953446</v>
       </c>
       <c r="E18">
-        <v>26.89942420485035</v>
+        <v>38.44616033910527</v>
       </c>
       <c r="F18">
-        <v>75.72282515056659</v>
+        <v>40.33326736033546</v>
       </c>
       <c r="G18">
-        <v>1.964131521599795</v>
+        <v>1.939805575858395</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>82.56331114050352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>36.79747425852145</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.48180147918424</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.01746290022066</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>32.14853704850322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.45877077883299</v>
+        <v>28.82261968951624</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.94586211630833</v>
+        <v>2.658163996626876</v>
       </c>
       <c r="E19">
-        <v>26.77690304230978</v>
+        <v>38.24517615015711</v>
       </c>
       <c r="F19">
-        <v>75.3548487248363</v>
+        <v>40.13442942213968</v>
       </c>
       <c r="G19">
-        <v>1.966072457777395</v>
+        <v>1.94075928968168</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>82.20590737232402</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>36.60578554617403</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.42969267862516</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.94782293560935</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>31.98899345666321</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.76700907678349</v>
+        <v>29.38712771213823</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.14450214056028</v>
+        <v>2.70163637694551</v>
       </c>
       <c r="E20">
-        <v>27.32939929610811</v>
+        <v>39.14774034632937</v>
       </c>
       <c r="F20">
-        <v>77.05122565756535</v>
+        <v>41.02586533535012</v>
       </c>
       <c r="G20">
-        <v>1.95730300417613</v>
+        <v>1.936465051754432</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>83.80373907579248</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>37.46741949190953</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.66373701031358</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.26033186008875</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>32.70428157197182</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.82917369262068</v>
+        <v>31.22119358573332</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.82599942450061</v>
+        <v>2.851451138798423</v>
       </c>
       <c r="E21">
-        <v>29.21497151358359</v>
+        <v>42.1541059056412</v>
       </c>
       <c r="F21">
-        <v>82.84900462270312</v>
+        <v>43.96597301420533</v>
       </c>
       <c r="G21">
-        <v>1.927063542472833</v>
+        <v>1.921960137631641</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>88.98998307435141</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>40.35541528725297</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.44449672404436</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.29748647128121</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>35.06394622049999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.62564585208801</v>
+        <v>32.37412346042078</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.28564170203644</v>
+        <v>2.95297424187675</v>
       </c>
       <c r="E22">
-        <v>30.4828523531608</v>
+        <v>44.10895661968483</v>
       </c>
       <c r="F22">
-        <v>86.68361530409004</v>
+        <v>45.85162006124357</v>
       </c>
       <c r="G22">
-        <v>1.90648727326595</v>
+        <v>1.912376127279526</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>92.24610226002383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.25259252740022</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.95390932504401</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.96940849505291</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>36.57798997088138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.20097446527664</v>
+        <v>31.76290705893638</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.03873297014238</v>
+        <v>2.898400418239814</v>
       </c>
       <c r="E23">
-        <v>29.8018680249316</v>
+        <v>43.06584919698184</v>
       </c>
       <c r="F23">
-        <v>84.63074918343901</v>
+        <v>44.84813586352317</v>
       </c>
       <c r="G23">
-        <v>1.917561223431155</v>
+        <v>1.917504158225488</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>90.52029302560385</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.23802871741991</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.68185753139987</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.61106176001172</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>35.7721815604782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.75008821786888</v>
+        <v>29.35636541739439</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.13354867582592</v>
+        <v>2.699236793913047</v>
       </c>
       <c r="E24">
-        <v>27.29897824531763</v>
+        <v>39.09829570508382</v>
       </c>
       <c r="F24">
-        <v>76.95682065730432</v>
+        <v>40.9771305559964</v>
       </c>
       <c r="G24">
-        <v>1.957786986574512</v>
+        <v>1.936701052048004</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>83.71668543464362</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.42016128551959</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.65091269222766</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.24322663366579</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>32.66517547682047</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.26995025489339</v>
+        <v>26.55830670834761</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.19670640986218</v>
+        <v>2.495039762889497</v>
       </c>
       <c r="E25">
-        <v>24.6717376101257</v>
+        <v>34.71862015935244</v>
       </c>
       <c r="F25">
-        <v>68.99324063284335</v>
+        <v>36.61664450726829</v>
       </c>
       <c r="G25">
-        <v>1.999067427454532</v>
+        <v>1.957245082471015</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>75.78973891882437</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.25610379159414</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.515688414006501</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.72085300190758</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>29.16646652915065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501662</v>
+        <v>15.46388812271717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.34972013534523</v>
+        <v>2.888251324519063</v>
       </c>
       <c r="E2">
-        <v>31.35800337974204</v>
+        <v>16.71456242210408</v>
       </c>
       <c r="F2">
-        <v>33.21936882378015</v>
+        <v>22.91516405752209</v>
       </c>
       <c r="G2">
-        <v>1.972485176699832</v>
+        <v>3.554465621914874</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>69.43069910385765</v>
+        <v>42.00370031271751</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.43978069555541</v>
+        <v>19.41803292077183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225605</v>
+        <v>14.62529716494162</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.252862348009557</v>
+        <v>2.868465467081656</v>
       </c>
       <c r="E3">
-        <v>28.97648187263919</v>
+        <v>15.74734985263152</v>
       </c>
       <c r="F3">
-        <v>30.78999478642793</v>
+        <v>22.18566614097691</v>
       </c>
       <c r="G3">
-        <v>1.98298446118674</v>
+        <v>3.558084161067144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>64.78771038057241</v>
+        <v>39.58439637612544</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.488499581227</v>
+        <v>18.92251440240058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639429</v>
+        <v>14.08227189835594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.193806291917562</v>
+        <v>2.856048993626553</v>
       </c>
       <c r="E4">
-        <v>27.4576849346444</v>
+        <v>15.12794543687676</v>
       </c>
       <c r="F4">
-        <v>29.23296184086118</v>
+        <v>21.73354054194773</v>
       </c>
       <c r="G4">
-        <v>1.989542951437232</v>
+        <v>3.560419138670963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>61.7702325409574</v>
+        <v>38.02187358361297</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.23684182374441</v>
+        <v>18.61841796641237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455038</v>
+        <v>13.85402509196118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.169796820415624</v>
+        <v>2.850921696415942</v>
       </c>
       <c r="E5">
-        <v>26.82386341189575</v>
+        <v>14.86937712186838</v>
       </c>
       <c r="F5">
-        <v>28.58168610131687</v>
+        <v>21.54856223081956</v>
       </c>
       <c r="G5">
-        <v>1.992247343678627</v>
+        <v>3.561399240755241</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.49838825984555</v>
+        <v>37.36626242888532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.71298257078602</v>
+        <v>18.49473964450635</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556358</v>
+        <v>13.81570835831321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.165812207870618</v>
+        <v>2.85006623315215</v>
       </c>
       <c r="E6">
-        <v>26.71769931539487</v>
+        <v>14.8260790259931</v>
       </c>
       <c r="F6">
-        <v>28.47252089774414</v>
+        <v>21.51781232752263</v>
       </c>
       <c r="G6">
-        <v>1.992698422672596</v>
+        <v>3.561563715616634</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.28464309963406</v>
+        <v>37.25627603765865</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.62515391665235</v>
+        <v>18.47422376162881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6172129738281</v>
+        <v>14.07922169308636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.193482321617106</v>
+        <v>2.855980118445007</v>
       </c>
       <c r="E7">
-        <v>27.44919817488972</v>
+        <v>15.12448283059672</v>
       </c>
       <c r="F7">
-        <v>29.2242468066048</v>
+        <v>21.73104838485154</v>
       </c>
       <c r="G7">
-        <v>1.989579290728049</v>
+        <v>3.560432240795761</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>61.75325121813994</v>
+        <v>38.01310743513349</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.22983314973489</v>
+        <v>18.61674873665768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961786</v>
+        <v>15.18063999774328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.31620602578425</v>
+        <v>2.881484681021925</v>
       </c>
       <c r="E8">
-        <v>30.54815235421995</v>
+        <v>16.3865093745028</v>
       </c>
       <c r="F8">
-        <v>32.39507205034557</v>
+        <v>22.66469596995105</v>
       </c>
       <c r="G8">
-        <v>1.976084409734664</v>
+        <v>3.555689875988606</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>67.86420339647036</v>
+        <v>41.18578900812587</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.77788376372133</v>
+        <v>19.24726691713163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193161</v>
+        <v>17.11354650569201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.562807521672415</v>
+        <v>2.929380739128483</v>
       </c>
       <c r="E9">
-        <v>36.21211963455751</v>
+        <v>18.80736662390711</v>
       </c>
       <c r="F9">
-        <v>38.11286333711389</v>
+        <v>24.4489572850658</v>
       </c>
       <c r="G9">
-        <v>1.950322133379234</v>
+        <v>3.547282679132513</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>78.54004445614619</v>
+        <v>46.77879708202151</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.36699090932279</v>
+        <v>20.47631796316274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378266</v>
+        <v>18.39153772040988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.752223080666011</v>
+        <v>2.96329102212657</v>
       </c>
       <c r="E10">
-        <v>40.18027455303738</v>
+        <v>20.49547908228563</v>
       </c>
       <c r="F10">
-        <v>42.04084519015982</v>
+        <v>25.71537767688056</v>
       </c>
       <c r="G10">
-        <v>1.931517324779007</v>
+        <v>3.541642386682013</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>85.60880529061056</v>
+        <v>50.48748964831373</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.51877322859591</v>
+        <v>21.36392112697861</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527765</v>
+        <v>18.94157951104755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.841551368769165</v>
+        <v>2.978442842350302</v>
       </c>
       <c r="E11">
-        <v>41.96009371619358</v>
+        <v>21.22102878584207</v>
       </c>
       <c r="F11">
-        <v>43.77766396158039</v>
+        <v>26.2789289706539</v>
       </c>
       <c r="G11">
-        <v>1.922905058533718</v>
+        <v>3.539191319903617</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.66174843512327</v>
+        <v>52.08534703260537</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.9127806164402</v>
+        <v>21.76229304255146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796117</v>
+        <v>19.14533481163442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.875980977148886</v>
+        <v>2.984141199598102</v>
       </c>
       <c r="E12">
-        <v>42.63217003938001</v>
+        <v>21.48972210935719</v>
       </c>
       <c r="F12">
-        <v>44.42910347968064</v>
+        <v>26.4903152199852</v>
       </c>
       <c r="G12">
-        <v>1.919626819093136</v>
+        <v>3.538279535533335</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>89.7949056628761</v>
+        <v>52.67744494454099</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.43574939600594</v>
+        <v>21.91221204852734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568597</v>
+        <v>19.10165446781605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.868536388806514</v>
+        <v>2.982915702787114</v>
       </c>
       <c r="E13">
-        <v>42.48747916994569</v>
+        <v>21.43212296421097</v>
       </c>
       <c r="F13">
-        <v>44.28906556110414</v>
+        <v>26.44488234123333</v>
       </c>
       <c r="G13">
-        <v>1.920333757189702</v>
+        <v>3.538475177899426</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>89.55187185858674</v>
+        <v>52.55050504930303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.32332264407044</v>
+        <v>21.87996832303193</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13818630349792</v>
+        <v>18.95843357864365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.844370855340157</v>
+        <v>2.978912436746874</v>
       </c>
       <c r="E14">
-        <v>42.01541264766664</v>
+        <v>21.24325551487777</v>
       </c>
       <c r="F14">
-        <v>43.83137760790595</v>
+        <v>26.29636144028487</v>
       </c>
       <c r="G14">
-        <v>1.92263575136847</v>
+        <v>3.539115979214815</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.75543065175417</v>
+        <v>52.13432002565632</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.95589883823121</v>
+        <v>21.77464658914564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298534</v>
+        <v>18.87011552320599</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.829652280497045</v>
+        <v>2.976455205106719</v>
       </c>
       <c r="E15">
-        <v>41.72606855470212</v>
+        <v>21.12678111820752</v>
       </c>
       <c r="F15">
-        <v>43.55024687919731</v>
+        <v>26.20511928788498</v>
       </c>
       <c r="G15">
-        <v>1.924043294858125</v>
+        <v>3.539510618406177</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>88.26461613887521</v>
+        <v>51.87770123785431</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.73022805662522</v>
+        <v>21.71000761895239</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689892</v>
+        <v>18.3549581758265</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.746460802471977</v>
+        <v>2.962295308117491</v>
       </c>
       <c r="E16">
-        <v>40.06359001551278</v>
+        <v>20.44721311684653</v>
       </c>
       <c r="F16">
-        <v>41.92640926738876</v>
+        <v>25.67827694917971</v>
       </c>
       <c r="G16">
-        <v>1.932078291152787</v>
+        <v>3.541804868354967</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>85.40605400812093</v>
+        <v>50.38125698588405</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.42693701927526</v>
+        <v>21.33776399663439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826843</v>
+        <v>18.03087938850338</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.696330603022409</v>
+        <v>2.9535385342362</v>
       </c>
       <c r="E17">
-        <v>39.03835436402788</v>
+        <v>20.01949224721977</v>
       </c>
       <c r="F17">
-        <v>40.91803401276293</v>
+        <v>25.3517026014505</v>
       </c>
       <c r="G17">
-        <v>1.936987037635568</v>
+        <v>3.543241618569027</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>83.61107613539413</v>
+        <v>49.44026495104949</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.61775505244245</v>
+        <v>21.10790372692033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821209</v>
+        <v>17.84153069387959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.667784052953446</v>
+        <v>2.948476059198042</v>
       </c>
       <c r="E18">
-        <v>38.44616033910527</v>
+        <v>19.76948715586678</v>
       </c>
       <c r="F18">
-        <v>40.33326736033546</v>
+        <v>25.16269573567658</v>
       </c>
       <c r="G18">
-        <v>1.939805575858395</v>
+        <v>3.544078805245713</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>82.56331114050352</v>
+        <v>48.89063678530206</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.14853704850322</v>
+        <v>20.9751943103584</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968951624</v>
+        <v>17.77691535278072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.658163996626876</v>
+        <v>2.946757555924558</v>
       </c>
       <c r="E19">
-        <v>38.24517615015711</v>
+        <v>19.68415305554162</v>
       </c>
       <c r="F19">
-        <v>40.13442942213968</v>
+        <v>25.09850720800331</v>
       </c>
       <c r="G19">
-        <v>1.94075928968168</v>
+        <v>3.544364121757167</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>82.20590737232402</v>
+        <v>48.7031053676155</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.98899345666321</v>
+        <v>20.93018037350943</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213823</v>
+        <v>18.065683389242</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.70163637694551</v>
+        <v>2.954473378242521</v>
       </c>
       <c r="E20">
-        <v>39.14774034632937</v>
+        <v>20.06543668049255</v>
       </c>
       <c r="F20">
-        <v>41.02586533535012</v>
+        <v>25.38658970316626</v>
       </c>
       <c r="G20">
-        <v>1.936465051754432</v>
+        <v>3.543087556526535</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>83.80373907579248</v>
+        <v>49.54130510658041</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.70428157197182</v>
+        <v>21.13242566986916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573332</v>
+        <v>19.00062425561372</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.851451138798423</v>
+        <v>2.980089358902621</v>
       </c>
       <c r="E21">
-        <v>42.1541059056412</v>
+        <v>21.29889453732582</v>
       </c>
       <c r="F21">
-        <v>43.96597301420533</v>
+        <v>26.34004199921628</v>
       </c>
       <c r="G21">
-        <v>1.921960137631641</v>
+        <v>3.538927316677012</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>88.98998307435141</v>
+        <v>52.25691677039622</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.06394622049999</v>
+        <v>21.8056087360082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042078</v>
+        <v>19.58522931221877</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.95297424187675</v>
+        <v>2.996601823451826</v>
       </c>
       <c r="E22">
-        <v>44.10895661968483</v>
+        <v>22.06974545028082</v>
       </c>
       <c r="F22">
-        <v>45.85162006124357</v>
+        <v>26.95133001253828</v>
       </c>
       <c r="G22">
-        <v>1.912376127279526</v>
+        <v>3.536303788819382</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>92.24610226002383</v>
+        <v>53.95605091192117</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.57798997088138</v>
+        <v>22.24005346421713</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76290705893638</v>
+        <v>19.27564066207561</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.898400418239814</v>
+        <v>2.987809729864144</v>
       </c>
       <c r="E23">
-        <v>43.06584919698184</v>
+        <v>21.66154396560651</v>
       </c>
       <c r="F23">
-        <v>44.84813586352317</v>
+        <v>26.62622303281883</v>
       </c>
       <c r="G23">
-        <v>1.917504158225488</v>
+        <v>3.537695321746732</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>90.52029302560385</v>
+        <v>53.0561530052013</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.7721815604782</v>
+        <v>22.00873637834044</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739439</v>
+        <v>18.04995794057749</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.699236793913047</v>
+        <v>2.954050822766922</v>
       </c>
       <c r="E24">
-        <v>39.09829570508382</v>
+        <v>20.0446779839577</v>
       </c>
       <c r="F24">
-        <v>40.9771305559964</v>
+        <v>25.37082113682247</v>
       </c>
       <c r="G24">
-        <v>1.936701052048004</v>
+        <v>3.543157173144086</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>83.71668543464362</v>
+        <v>49.4956517505887</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.66517547682047</v>
+        <v>21.12134103057043</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834761</v>
+        <v>16.61539234780996</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.495039762889497</v>
+        <v>2.916649087185314</v>
       </c>
       <c r="E25">
-        <v>34.71862015935244</v>
+        <v>18.14787061189909</v>
       </c>
       <c r="F25">
-        <v>36.61664450726829</v>
+        <v>23.97300802016276</v>
       </c>
       <c r="G25">
-        <v>1.957245082471015</v>
+        <v>3.54946228545465</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>75.78973891882437</v>
+        <v>45.33509062920478</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.16646652915065</v>
+        <v>20.14578213644698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46388812271717</v>
+        <v>24.31785756501655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.888251324519063</v>
+        <v>2.349720135345097</v>
       </c>
       <c r="E2">
-        <v>16.71456242210408</v>
+        <v>31.35800337974203</v>
       </c>
       <c r="F2">
-        <v>22.91516405752209</v>
+        <v>33.21936882378017</v>
       </c>
       <c r="G2">
-        <v>3.554465621914874</v>
+        <v>1.9724851766997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>42.00370031271751</v>
+        <v>69.43069910385718</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.41803292077183</v>
+        <v>26.43978069555539</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62529716494162</v>
+        <v>22.68411345225612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.868465467081656</v>
+        <v>2.252862348009428</v>
       </c>
       <c r="E3">
-        <v>15.74734985263152</v>
+        <v>28.97648187263921</v>
       </c>
       <c r="F3">
-        <v>22.18566614097691</v>
+        <v>30.78999478642795</v>
       </c>
       <c r="G3">
-        <v>3.558084161067144</v>
+        <v>1.982984461186608</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>39.58439637612544</v>
+        <v>64.78771038057258</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.92251440240058</v>
+        <v>24.48849958122702</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.08227189835594</v>
+        <v>21.62318182639427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.856048993626553</v>
+        <v>2.193806291917562</v>
       </c>
       <c r="E4">
-        <v>15.12794543687676</v>
+        <v>27.45768493464436</v>
       </c>
       <c r="F4">
-        <v>21.73354054194773</v>
+        <v>29.23296184086121</v>
       </c>
       <c r="G4">
-        <v>3.560419138670963</v>
+        <v>1.989542951437367</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.02187358361297</v>
+        <v>61.77023254095738</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.61841796641237</v>
+        <v>23.23684182374442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85402509196118</v>
+        <v>21.17618423455042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.850921696415942</v>
+        <v>2.169796820415627</v>
       </c>
       <c r="E5">
-        <v>14.86937712186838</v>
+        <v>26.82386341189582</v>
       </c>
       <c r="F5">
-        <v>21.54856223081956</v>
+        <v>28.58168610131688</v>
       </c>
       <c r="G5">
-        <v>3.561399240755241</v>
+        <v>1.992247343678758</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.36626242888532</v>
+        <v>60.4983882598456</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.49473964450635</v>
+        <v>22.71298257078605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81570835831321</v>
+        <v>21.10107177556363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.85006623315215</v>
+        <v>2.165812207870554</v>
       </c>
       <c r="E6">
-        <v>14.8260790259931</v>
+        <v>26.71769931539489</v>
       </c>
       <c r="F6">
-        <v>21.51781232752263</v>
+        <v>28.4725208977442</v>
       </c>
       <c r="G6">
-        <v>3.561563715616634</v>
+        <v>1.992698422672725</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.25627603765865</v>
+        <v>60.2846430996342</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.47422376162881</v>
+        <v>22.6251539166524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.07922169308636</v>
+        <v>21.61721297382809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.855980118445007</v>
+        <v>2.193482321617041</v>
       </c>
       <c r="E7">
-        <v>15.12448283059672</v>
+        <v>27.44919817488973</v>
       </c>
       <c r="F7">
-        <v>21.73104838485154</v>
+        <v>29.22424680660475</v>
       </c>
       <c r="G7">
-        <v>3.560432240795761</v>
+        <v>1.989579290728182</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.01310743513349</v>
+        <v>61.75325121813999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.61674873665768</v>
+        <v>23.22983314973484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.18063999774328</v>
+        <v>23.7664634596178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.881484681021925</v>
+        <v>2.316206025784117</v>
       </c>
       <c r="E8">
-        <v>16.3865093745028</v>
+        <v>30.54815235421998</v>
       </c>
       <c r="F8">
-        <v>22.66469596995105</v>
+        <v>32.39507205034562</v>
       </c>
       <c r="G8">
-        <v>3.555689875988606</v>
+        <v>1.976084409734533</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>41.18578900812587</v>
+        <v>67.86420339647047</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.24726691713163</v>
+        <v>25.77788376372137</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11354650569201</v>
+        <v>27.52843021193151</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.929380739128483</v>
+        <v>2.562807521672481</v>
       </c>
       <c r="E9">
-        <v>18.80736662390711</v>
+        <v>36.21211963455747</v>
       </c>
       <c r="F9">
-        <v>24.4489572850658</v>
+        <v>38.1128633371138</v>
       </c>
       <c r="G9">
-        <v>3.547282679132513</v>
+        <v>1.950322133379365</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.77879708202151</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.47631796316274</v>
+        <v>30.36699090932273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39153772040988</v>
+        <v>30.02515941378264</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.96329102212657</v>
+        <v>2.752223080665947</v>
       </c>
       <c r="E10">
-        <v>20.49547908228563</v>
+        <v>40.18027455303743</v>
       </c>
       <c r="F10">
-        <v>25.71537767688056</v>
+        <v>42.04084519015975</v>
       </c>
       <c r="G10">
-        <v>3.541642386682013</v>
+        <v>1.931517324779009</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>50.48748964831373</v>
+        <v>85.60880529061026</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.36392112697861</v>
+        <v>33.51877322859583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94157951104755</v>
+        <v>31.10503410527765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.978442842350302</v>
+        <v>2.841551368769165</v>
       </c>
       <c r="E11">
-        <v>21.22102878584207</v>
+        <v>41.96009371619359</v>
       </c>
       <c r="F11">
-        <v>26.2789289706539</v>
+        <v>43.77766396158044</v>
       </c>
       <c r="G11">
-        <v>3.539191319903617</v>
+        <v>1.922905058533714</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>52.08534703260537</v>
+        <v>88.66174843512329</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.76229304255146</v>
+        <v>34.91278061644022</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14533481163442</v>
+        <v>31.50609682796114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.984141199598102</v>
+        <v>2.875980977148678</v>
       </c>
       <c r="E12">
-        <v>21.48972210935719</v>
+        <v>42.63217003937999</v>
       </c>
       <c r="F12">
-        <v>26.4903152199852</v>
+        <v>44.42910347968072</v>
       </c>
       <c r="G12">
-        <v>3.538279535533335</v>
+        <v>1.91962681909287</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>52.67744494454099</v>
+        <v>89.79490566287599</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.91221204852734</v>
+        <v>35.43574939600597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10165446781605</v>
+        <v>31.42006755568587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.982915702787114</v>
+        <v>2.868536388806265</v>
       </c>
       <c r="E13">
-        <v>21.43212296421097</v>
+        <v>42.48747916994567</v>
       </c>
       <c r="F13">
-        <v>26.44488234123333</v>
+        <v>44.28906556110419</v>
       </c>
       <c r="G13">
-        <v>3.538475177899426</v>
+        <v>1.920333757189961</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>52.55050504930303</v>
+        <v>89.55187185858654</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.87996832303193</v>
+        <v>35.32332264407044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95843357864365</v>
+        <v>31.138186303498</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.978912436746874</v>
+        <v>2.844370855340155</v>
       </c>
       <c r="E14">
-        <v>21.24325551487777</v>
+        <v>42.01541264766654</v>
       </c>
       <c r="F14">
-        <v>26.29636144028487</v>
+        <v>43.83137760790592</v>
       </c>
       <c r="G14">
-        <v>3.539115979214815</v>
+        <v>1.922635751368605</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>52.13432002565632</v>
+        <v>88.75543065175434</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.77464658914564</v>
+        <v>34.95589883823117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87011552320599</v>
+        <v>30.96450739298555</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.976455205106719</v>
+        <v>2.829652280497052</v>
       </c>
       <c r="E15">
-        <v>21.12678111820752</v>
+        <v>41.72606855470212</v>
       </c>
       <c r="F15">
-        <v>26.20511928788498</v>
+        <v>43.55024687919729</v>
       </c>
       <c r="G15">
-        <v>3.539510618406177</v>
+        <v>1.924043294858122</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>51.87770123785431</v>
+        <v>88.2646161388756</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.71000761895239</v>
+        <v>34.7302280566252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3549581758265</v>
+        <v>29.95347700689886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.962295308117491</v>
+        <v>2.74646080247185</v>
       </c>
       <c r="E16">
-        <v>20.44721311684653</v>
+        <v>40.06359001551276</v>
       </c>
       <c r="F16">
-        <v>25.67827694917971</v>
+        <v>41.92640926738877</v>
       </c>
       <c r="G16">
-        <v>3.541804868354967</v>
+        <v>1.932078291152919</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>50.38125698588405</v>
+        <v>85.40605400812032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.33776399663439</v>
+        <v>33.42693701927523</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03087938850338</v>
+        <v>29.31904709826847</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.9535385342362</v>
+        <v>2.696330603022348</v>
       </c>
       <c r="E17">
-        <v>20.01949224721977</v>
+        <v>39.03835436402786</v>
       </c>
       <c r="F17">
-        <v>25.3517026014505</v>
+        <v>40.91803401276293</v>
       </c>
       <c r="G17">
-        <v>3.543241618569027</v>
+        <v>1.936987037635832</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>49.44026495104949</v>
+        <v>83.61107613539407</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.10790372692033</v>
+        <v>32.61775505244243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84153069387959</v>
+        <v>28.94886706821212</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.948476059198042</v>
+        <v>2.667784052953318</v>
       </c>
       <c r="E18">
-        <v>19.76948715586678</v>
+        <v>38.44616033910535</v>
       </c>
       <c r="F18">
-        <v>25.16269573567658</v>
+        <v>40.3332673603356</v>
       </c>
       <c r="G18">
-        <v>3.544078805245713</v>
+        <v>1.93980557585826</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>48.89063678530206</v>
+        <v>82.56331114050347</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.9751943103584</v>
+        <v>32.14853704850329</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77691535278072</v>
+        <v>28.82261968951628</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.946757555924558</v>
+        <v>2.658163996626812</v>
       </c>
       <c r="E19">
-        <v>19.68415305554162</v>
+        <v>38.24517615015714</v>
       </c>
       <c r="F19">
-        <v>25.09850720800331</v>
+        <v>40.1344294221397</v>
       </c>
       <c r="G19">
-        <v>3.544364121757167</v>
+        <v>1.940759289681549</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>48.7031053676155</v>
+        <v>82.20590737232423</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.93018037350943</v>
+        <v>31.98899345666323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.065683389242</v>
+        <v>29.38712771213808</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.954473378242521</v>
+        <v>2.701636376945584</v>
       </c>
       <c r="E20">
-        <v>20.06543668049255</v>
+        <v>39.14774034632919</v>
       </c>
       <c r="F20">
-        <v>25.38658970316626</v>
+        <v>41.02586533535001</v>
       </c>
       <c r="G20">
-        <v>3.543087556526535</v>
+        <v>1.936465051754558</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>49.54130510658041</v>
+        <v>83.80373907579209</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.13242566986916</v>
+        <v>32.70428157197173</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00062425561372</v>
+        <v>31.22119358573329</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.980089358902621</v>
+        <v>2.851451138798412</v>
       </c>
       <c r="E21">
-        <v>21.29889453732582</v>
+        <v>42.15410590564117</v>
       </c>
       <c r="F21">
-        <v>26.34004199921628</v>
+        <v>43.96597301420545</v>
       </c>
       <c r="G21">
-        <v>3.538927316677012</v>
+        <v>1.921960137631644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>52.25691677039622</v>
+        <v>88.98998307435168</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.8056087360082</v>
+        <v>35.0639462205001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58522931221877</v>
+        <v>32.37412346042072</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.996601823451826</v>
+        <v>2.952974241876813</v>
       </c>
       <c r="E22">
-        <v>22.06974545028082</v>
+        <v>44.1089566196849</v>
       </c>
       <c r="F22">
-        <v>26.95133001253828</v>
+        <v>45.85162006124362</v>
       </c>
       <c r="G22">
-        <v>3.536303788819382</v>
+        <v>1.912376127279533</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>53.95605091192117</v>
+        <v>92.24610226002343</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.24005346421713</v>
+        <v>36.57798997088143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27564066207561</v>
+        <v>31.7629070589364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.987809729864144</v>
+        <v>2.898400418239745</v>
       </c>
       <c r="E23">
-        <v>21.66154396560651</v>
+        <v>43.06584919698184</v>
       </c>
       <c r="F23">
-        <v>26.62622303281883</v>
+        <v>44.84813586352318</v>
       </c>
       <c r="G23">
-        <v>3.537695321746732</v>
+        <v>1.917504158225757</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>53.0561530052013</v>
+        <v>90.52029302560413</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.00873637834044</v>
+        <v>35.77218156047817</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.04995794057749</v>
+        <v>29.35636541739444</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.954050822766922</v>
+        <v>2.699236793912925</v>
       </c>
       <c r="E24">
-        <v>20.0446779839577</v>
+        <v>39.0982957050839</v>
       </c>
       <c r="F24">
-        <v>25.37082113682247</v>
+        <v>40.97713055599647</v>
       </c>
       <c r="G24">
-        <v>3.543157173144086</v>
+        <v>1.936701052047602</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>49.4956517505887</v>
+        <v>83.71668543464368</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.12134103057043</v>
+        <v>32.66517547682052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61539234780996</v>
+        <v>26.55830670834752</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.916649087185314</v>
+        <v>2.495039762889496</v>
       </c>
       <c r="E25">
-        <v>18.14787061189909</v>
+        <v>34.71862015935243</v>
       </c>
       <c r="F25">
-        <v>23.97300802016276</v>
+        <v>36.61664450726826</v>
       </c>
       <c r="G25">
-        <v>3.54946228545465</v>
+        <v>1.957245082471155</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.33509062920478</v>
+        <v>75.78973891882393</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.14578213644698</v>
+        <v>29.16646652915063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501655</v>
+        <v>10.41546303834278</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.349720135345097</v>
+        <v>4.533201399214716</v>
       </c>
       <c r="E2">
-        <v>31.35800337974203</v>
+        <v>10.9158811772309</v>
       </c>
       <c r="F2">
-        <v>33.21936882378017</v>
+        <v>24.56854691424863</v>
       </c>
       <c r="G2">
-        <v>1.9724851766997</v>
+        <v>34.20663821367104</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.390439718898693</v>
       </c>
       <c r="I2">
-        <v>69.43069910385718</v>
+        <v>4.567337085061519</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.262086184253</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.73807650814953</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.80795858961973</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.436533102545685</v>
       </c>
       <c r="O2">
-        <v>26.43978069555539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.330376488669661</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225612</v>
+        <v>9.823313022577599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.252862348009428</v>
+        <v>4.486820321540684</v>
       </c>
       <c r="E3">
-        <v>28.97648187263921</v>
+        <v>10.62361488348832</v>
       </c>
       <c r="F3">
-        <v>30.78999478642795</v>
+        <v>23.80845540859604</v>
       </c>
       <c r="G3">
-        <v>1.982984461186608</v>
+        <v>33.0340060193971</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.588170690192274</v>
       </c>
       <c r="I3">
-        <v>64.78771038057258</v>
+        <v>4.711177528587384</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.14659738951379</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.71268534449612</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.98884391399788</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.176160932533105</v>
       </c>
       <c r="O3">
-        <v>24.48849958122702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>8.975686089688077</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639427</v>
+        <v>9.438281406154243</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.193806291917562</v>
+        <v>4.457668623772978</v>
       </c>
       <c r="E4">
-        <v>27.45768493464436</v>
+        <v>10.43973428315386</v>
       </c>
       <c r="F4">
-        <v>29.23296184086121</v>
+        <v>23.33996462798108</v>
       </c>
       <c r="G4">
-        <v>1.989542951437367</v>
+        <v>32.30684736574718</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.71379714248596</v>
       </c>
       <c r="I4">
-        <v>61.77023254095738</v>
+        <v>4.803168285918217</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.07891715904424</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.6961197285403</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.46331049388784</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.012384810847953</v>
       </c>
       <c r="O4">
-        <v>23.23684182374442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.750819889988975</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455042</v>
+        <v>9.268821757887043</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.169796820415627</v>
+        <v>4.446464599738812</v>
       </c>
       <c r="E5">
-        <v>26.82386341189582</v>
+        <v>10.36364265117933</v>
       </c>
       <c r="F5">
-        <v>28.58168610131688</v>
+        <v>23.13415269637123</v>
       </c>
       <c r="G5">
-        <v>1.992247343678758</v>
+        <v>31.9826147729729</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.766445415633409</v>
       </c>
       <c r="I5">
-        <v>60.4983882598456</v>
+        <v>4.843978190615877</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.04712150587005</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.67666956666437</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.24949062104355</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.947479473409532</v>
       </c>
       <c r="O5">
-        <v>22.71298257078605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.656569442475558</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556363</v>
+        <v>9.231507875164088</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.165812207870554</v>
+        <v>4.445636697976841</v>
       </c>
       <c r="E6">
-        <v>26.71769931539489</v>
+        <v>10.3509701592289</v>
       </c>
       <c r="F6">
-        <v>28.4725208977442</v>
+        <v>23.08201000868102</v>
       </c>
       <c r="G6">
-        <v>1.992698422672725</v>
+        <v>31.89630534140019</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.775710409044343</v>
       </c>
       <c r="I6">
-        <v>60.2846430996342</v>
+        <v>4.85384213462131</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.03575111877844</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.65822052279108</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.22094055078791</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.940009306287164</v>
       </c>
       <c r="O6">
-        <v>22.6251539166524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.639672932355932</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382809</v>
+        <v>9.412321831136165</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.193482321617041</v>
+        <v>4.460403008798623</v>
       </c>
       <c r="E7">
-        <v>27.44919817488973</v>
+        <v>10.43886508456324</v>
       </c>
       <c r="F7">
-        <v>29.22424680660475</v>
+        <v>23.28869247341717</v>
       </c>
       <c r="G7">
-        <v>1.989579290728182</v>
+        <v>32.2151039980226</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.715726604239334</v>
       </c>
       <c r="I7">
-        <v>61.75325121813999</v>
+        <v>4.811730666064775</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.06180662986896</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.65442562380092</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.48000616838151</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.020560725414268</v>
       </c>
       <c r="O7">
-        <v>23.22983314973484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.746458312583746</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.7664634596178</v>
+        <v>10.18654717319135</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.316206025784117</v>
+        <v>4.521339677708839</v>
       </c>
       <c r="E8">
-        <v>30.54815235421998</v>
+        <v>10.81655103522258</v>
       </c>
       <c r="F8">
-        <v>32.39507205034562</v>
+        <v>24.24544603555521</v>
       </c>
       <c r="G8">
-        <v>1.976084409734533</v>
+        <v>33.69358048668795</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.459264839130495</v>
       </c>
       <c r="I8">
-        <v>67.86420339647047</v>
+        <v>4.626243516111886</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.19995727205671</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.67530393740306</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.55458498774139</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.359011183734922</v>
       </c>
       <c r="O8">
-        <v>25.77788376372137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.205686270610913</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193151</v>
+        <v>11.5704158335639</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.562807521672481</v>
+        <v>4.630045395763457</v>
       </c>
       <c r="E9">
-        <v>36.21211963455747</v>
+        <v>11.52343705351703</v>
       </c>
       <c r="F9">
-        <v>38.1128633371138</v>
+        <v>26.17983301587047</v>
       </c>
       <c r="G9">
-        <v>1.950322133379365</v>
+        <v>36.66812279101956</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.986957282357421</v>
       </c>
       <c r="I9">
-        <v>78.54004445614574</v>
+        <v>4.278023717386349</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.52588710462526</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.78134903505094</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.44872479180608</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.973858408442481</v>
       </c>
       <c r="O9">
-        <v>30.36699090932273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.05127614578187</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378264</v>
+        <v>12.4218820915693</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.752223080665947</v>
+        <v>4.726701405709861</v>
       </c>
       <c r="E10">
-        <v>40.18027455303743</v>
+        <v>12.05160967163959</v>
       </c>
       <c r="F10">
-        <v>42.04084519015975</v>
+        <v>27.34518087741929</v>
       </c>
       <c r="G10">
-        <v>1.931517324779009</v>
+        <v>38.38374742279078</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.686901131530423</v>
       </c>
       <c r="I10">
-        <v>85.60880529061026</v>
+        <v>4.049653408772964</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.69611910743557</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.66545147024165</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.79332826685248</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.299882206494096</v>
       </c>
       <c r="O10">
-        <v>33.51877322859583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.55063069106349</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527765</v>
+        <v>12.34450308076203</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.841551368769165</v>
+        <v>4.962994986359369</v>
       </c>
       <c r="E11">
-        <v>41.96009371619359</v>
+        <v>12.79618611282769</v>
       </c>
       <c r="F11">
-        <v>43.77766396158044</v>
+        <v>26.00368642974304</v>
       </c>
       <c r="G11">
-        <v>1.922905058533714</v>
+        <v>35.83917799340795</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.434392691070561</v>
       </c>
       <c r="I11">
-        <v>88.66174843512329</v>
+        <v>4.013747572430777</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.08196889766158</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.17965779087314</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.89822608915575</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.552006741293851</v>
       </c>
       <c r="O11">
-        <v>34.91278061644022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.08318714069655</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796114</v>
+        <v>12.12936889325013</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.875980977148678</v>
+        <v>5.168930948252763</v>
       </c>
       <c r="E12">
-        <v>42.63217003937999</v>
+        <v>13.64419888019278</v>
       </c>
       <c r="F12">
-        <v>44.42910347968072</v>
+        <v>24.66673822153014</v>
       </c>
       <c r="G12">
-        <v>1.91962681909287</v>
+        <v>33.40538505329773</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.631927278104717</v>
       </c>
       <c r="I12">
-        <v>89.79490566287599</v>
+        <v>4.010921414150316</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.54587312334939</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.13893773302068</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.54582449342267</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.846890509569422</v>
       </c>
       <c r="O12">
-        <v>35.43574939600597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.585552361183215</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568587</v>
+        <v>11.76008670172243</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.868536388806265</v>
+        <v>5.363934044317869</v>
       </c>
       <c r="E13">
-        <v>42.48747916994567</v>
+        <v>14.57338792315733</v>
       </c>
       <c r="F13">
-        <v>44.28906556110419</v>
+        <v>23.15245133410995</v>
       </c>
       <c r="G13">
-        <v>1.920333757189961</v>
+        <v>30.72757055943797</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.955331326089924</v>
       </c>
       <c r="I13">
-        <v>89.55187185858654</v>
+        <v>4.046399372583616</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.0090142699148</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.34338389777521</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.92144911369778</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.136693769670257</v>
       </c>
       <c r="O13">
-        <v>35.32332264407044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.021352871429009</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.138186303498</v>
+        <v>11.42092618668027</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.844370855340155</v>
+        <v>5.49878972732874</v>
       </c>
       <c r="E14">
-        <v>42.01541264766654</v>
+        <v>15.28233739201462</v>
       </c>
       <c r="F14">
-        <v>43.83137760790592</v>
+        <v>21.98625159400683</v>
       </c>
       <c r="G14">
-        <v>1.922635751368605</v>
+        <v>28.69457133755853</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.918973814326422</v>
       </c>
       <c r="I14">
-        <v>88.75543065175434</v>
+        <v>4.090586511094467</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.629951638558627</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.93007609764165</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.07220028481965</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.644424956075072</v>
       </c>
       <c r="O14">
-        <v>34.95589883823117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.592437361657849</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298555</v>
+        <v>11.29714067912693</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.829652280497052</v>
+        <v>5.527545867230095</v>
       </c>
       <c r="E15">
-        <v>41.72606855470212</v>
+        <v>15.44102119636218</v>
       </c>
       <c r="F15">
-        <v>43.55024687919729</v>
+        <v>21.64870404270281</v>
       </c>
       <c r="G15">
-        <v>1.924043294858122</v>
+        <v>28.11863600030912</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.147005646582836</v>
       </c>
       <c r="I15">
-        <v>88.2646161388756</v>
+        <v>4.113945734594755</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.533171448049531</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.85918946018256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.05654354613338</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.52540429516385</v>
       </c>
       <c r="O15">
-        <v>34.7302280566252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.472554264693199</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689886</v>
+        <v>10.98182695524303</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.74646080247185</v>
+        <v>5.445842435679668</v>
       </c>
       <c r="E16">
-        <v>40.06359001551276</v>
+        <v>15.05582247581506</v>
       </c>
       <c r="F16">
-        <v>41.92640926738877</v>
+        <v>21.34543134002839</v>
       </c>
       <c r="G16">
-        <v>1.932078291152919</v>
+        <v>27.71804626623016</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.977282961670775</v>
       </c>
       <c r="I16">
-        <v>85.40605400812032</v>
+        <v>4.210405807218156</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.550201363459433</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.06146961235487</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.46698520388681</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.505662672368786</v>
       </c>
       <c r="O16">
-        <v>33.42693701927523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.350571567564987</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826847</v>
+        <v>10.92417130091802</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.696330603022348</v>
+        <v>5.308754163346971</v>
       </c>
       <c r="E17">
-        <v>39.03835436402786</v>
+        <v>14.3462371883976</v>
       </c>
       <c r="F17">
-        <v>40.91803401276293</v>
+        <v>21.75539559568493</v>
       </c>
       <c r="G17">
-        <v>1.936987037635832</v>
+        <v>28.53369008908632</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.310214081902574</v>
       </c>
       <c r="I17">
-        <v>83.61107613539407</v>
+        <v>4.261594928933392</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.765615082358547</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.41202038536027</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.92068374520582</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.753545826485669</v>
       </c>
       <c r="O17">
-        <v>32.61775505244243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.490101917983566</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821212</v>
+        <v>11.10173048064012</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.667784052953318</v>
+        <v>5.115800157925601</v>
       </c>
       <c r="E18">
-        <v>38.44616033910535</v>
+        <v>13.36912564702893</v>
       </c>
       <c r="F18">
-        <v>40.3332673603356</v>
+        <v>22.85389681033598</v>
       </c>
       <c r="G18">
-        <v>1.93980557585826</v>
+        <v>30.54069133787796</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.188362396779995</v>
       </c>
       <c r="I18">
-        <v>82.56331114050347</v>
+        <v>4.268091584361552</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.18910756584424</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.04605759394779</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.34566889654037</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.274998861615273</v>
       </c>
       <c r="O18">
-        <v>32.14853704850329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>8.876334817475549</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968951628</v>
+        <v>11.41515322935002</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.658163996626812</v>
+        <v>4.921746373723087</v>
       </c>
       <c r="E19">
-        <v>38.24517615015714</v>
+        <v>12.48333515007862</v>
       </c>
       <c r="F19">
-        <v>40.1344294221397</v>
+        <v>24.33120467621148</v>
       </c>
       <c r="G19">
-        <v>1.940759289681549</v>
+        <v>33.19102953717151</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.933155220723678</v>
       </c>
       <c r="I19">
-        <v>82.20590737232423</v>
+        <v>4.249310997092119</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.72530869037256</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.9469469846921</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.83748047992597</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.008645181641248</v>
       </c>
       <c r="O19">
-        <v>31.98899345666323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.428230278817706</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213808</v>
+        <v>12.14450219757808</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.701636376945584</v>
+        <v>4.712719000791819</v>
       </c>
       <c r="E20">
-        <v>39.14774034632919</v>
+        <v>11.91949847033033</v>
       </c>
       <c r="F20">
-        <v>41.02586533535001</v>
+        <v>26.90151619111968</v>
       </c>
       <c r="G20">
-        <v>1.936465051754558</v>
+        <v>37.68899318098118</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.767499516522835</v>
       </c>
       <c r="I20">
-        <v>83.80373907579209</v>
+        <v>4.13405088573078</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.59867541321982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.56631294443636</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.5004615394813</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.234254678778437</v>
       </c>
       <c r="O20">
-        <v>32.70428157197173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.41016681480598</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573329</v>
+        <v>12.85420474376189</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.851451138798412</v>
+        <v>4.755372342861162</v>
       </c>
       <c r="E21">
-        <v>42.15410590564117</v>
+        <v>12.28048452058325</v>
       </c>
       <c r="F21">
-        <v>43.96597301420545</v>
+        <v>28.1434493764933</v>
       </c>
       <c r="G21">
-        <v>1.921960137631644</v>
+        <v>39.62100577451109</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.500048076061077</v>
       </c>
       <c r="I21">
-        <v>88.98998307435168</v>
+        <v>3.948640033125113</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.86652334911948</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.76416921724325</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.39573221508185</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.635037350438867</v>
       </c>
       <c r="O21">
-        <v>35.0639462205001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>10.90489385858873</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042072</v>
+        <v>13.29541251865038</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.952974241876813</v>
+        <v>4.787750811085078</v>
       </c>
       <c r="E22">
-        <v>44.1089566196849</v>
+        <v>12.52640519918738</v>
       </c>
       <c r="F22">
-        <v>45.85162006124362</v>
+        <v>28.88996213793265</v>
       </c>
       <c r="G22">
-        <v>1.912376127279533</v>
+        <v>40.76536716933837</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.340471216492029</v>
       </c>
       <c r="I22">
-        <v>92.24610226002343</v>
+        <v>3.82322097909548</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.02402495924577</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.8574140283876</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.97113312173536</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.828245343247811</v>
       </c>
       <c r="O22">
-        <v>36.57798997088143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.18212170066708</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.7629070589364</v>
+        <v>13.08259691493539</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.898400418239745</v>
+        <v>4.766560534777287</v>
       </c>
       <c r="E23">
-        <v>43.06584919698184</v>
+        <v>12.39387099735128</v>
       </c>
       <c r="F23">
-        <v>44.84813586352318</v>
+        <v>28.53879487623432</v>
       </c>
       <c r="G23">
-        <v>1.917504158225757</v>
+        <v>40.23850528156097</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.424290763717116</v>
       </c>
       <c r="I23">
-        <v>90.52029302560413</v>
+        <v>3.880124247857075</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.95740089052104</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.85397199956439</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.64814514334867</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.717008470904944</v>
       </c>
       <c r="O23">
-        <v>35.77218156047817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.03793683821044</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739444</v>
+        <v>12.20527761310726</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.699236793912925</v>
+        <v>4.691340756735985</v>
       </c>
       <c r="E24">
-        <v>39.0982957050839</v>
+        <v>11.89049261131916</v>
       </c>
       <c r="F24">
-        <v>40.97713055599647</v>
+        <v>27.12384338823191</v>
       </c>
       <c r="G24">
-        <v>1.936701052047602</v>
+        <v>38.0890744735421</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.749314150838832</v>
       </c>
       <c r="I24">
-        <v>83.71668543464368</v>
+        <v>4.116595944406988</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.6841814941298</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.76781544808086</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.41121923514298</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.298821557144172</v>
       </c>
       <c r="O24">
-        <v>32.66517547682052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.47037500131616</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834752</v>
+        <v>11.17840170290178</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.495039762889496</v>
+        <v>4.606956437141832</v>
       </c>
       <c r="E25">
-        <v>34.71862015935243</v>
+        <v>11.33685529982001</v>
       </c>
       <c r="F25">
-        <v>36.61664450726826</v>
+        <v>25.58130369057211</v>
       </c>
       <c r="G25">
-        <v>1.957245082471155</v>
+        <v>35.7319220387887</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.113251393266196</v>
       </c>
       <c r="I25">
-        <v>75.78973891882393</v>
+        <v>4.383263705514548</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.40622420019856</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.68080501319985</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.98650009403273</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.8260530591651</v>
       </c>
       <c r="O25">
-        <v>29.16646652915063</v>
+        <v>9.824425870624152</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.41546303834278</v>
+        <v>9.684462808300101</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.533201399214716</v>
+        <v>4.556525070746003</v>
       </c>
       <c r="E2">
-        <v>10.9158811772309</v>
+        <v>10.43617676638832</v>
       </c>
       <c r="F2">
-        <v>24.56854691424863</v>
+        <v>23.48734916105883</v>
       </c>
       <c r="G2">
-        <v>34.20663821367104</v>
+        <v>31.81407916733179</v>
       </c>
       <c r="H2">
-        <v>3.390439718898693</v>
+        <v>3.141098026505124</v>
       </c>
       <c r="I2">
-        <v>4.567337085061519</v>
+        <v>4.208297480033258</v>
       </c>
       <c r="J2">
-        <v>11.262086184253</v>
+        <v>11.23527088581156</v>
       </c>
       <c r="K2">
-        <v>19.73807650814953</v>
+        <v>18.08603150794642</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.85343722993623</v>
       </c>
       <c r="M2">
-        <v>14.80795858961973</v>
+        <v>12.86749291473218</v>
       </c>
       <c r="N2">
-        <v>6.436533102545685</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.330376488669661</v>
+        <v>15.07629570892834</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.852702132018316</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.212725031908297</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.823313022577599</v>
+        <v>9.131301200813455</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.486820321540684</v>
+        <v>4.48591202524264</v>
       </c>
       <c r="E3">
-        <v>10.62361488348832</v>
+        <v>10.13421200139174</v>
       </c>
       <c r="F3">
-        <v>23.80845540859604</v>
+        <v>22.85286335249977</v>
       </c>
       <c r="G3">
-        <v>33.0340060193971</v>
+        <v>30.89065829144797</v>
       </c>
       <c r="H3">
-        <v>3.588170690192274</v>
+        <v>3.322539169272214</v>
       </c>
       <c r="I3">
-        <v>4.711177528587384</v>
+        <v>4.330893768815697</v>
       </c>
       <c r="J3">
-        <v>11.14659738951379</v>
+        <v>11.12317859075675</v>
       </c>
       <c r="K3">
-        <v>19.71268534449612</v>
+        <v>18.16399174083006</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.98484927963933</v>
       </c>
       <c r="M3">
-        <v>13.98884391399788</v>
+        <v>12.89487174785956</v>
       </c>
       <c r="N3">
-        <v>6.176160932533105</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>8.975686089688077</v>
+        <v>14.19942531026138</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.583495045669318</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.861560878659489</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.438281406154243</v>
+        <v>8.77016844090552</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.457668623772978</v>
+        <v>4.441958239729093</v>
       </c>
       <c r="E4">
-        <v>10.43973428315386</v>
+        <v>9.945203715066555</v>
       </c>
       <c r="F4">
-        <v>23.33996462798108</v>
+        <v>22.46315357887566</v>
       </c>
       <c r="G4">
-        <v>32.30684736574718</v>
+        <v>30.32643064229009</v>
       </c>
       <c r="H4">
-        <v>3.71379714248596</v>
+        <v>3.437852949517264</v>
       </c>
       <c r="I4">
-        <v>4.803168285918217</v>
+        <v>4.409586848597629</v>
       </c>
       <c r="J4">
-        <v>11.07891715904424</v>
+        <v>11.05474066891199</v>
       </c>
       <c r="K4">
-        <v>19.6961197285403</v>
+        <v>18.21070730690202</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.0646020456244</v>
       </c>
       <c r="M4">
-        <v>13.46331049388784</v>
+        <v>12.92234160684735</v>
       </c>
       <c r="N4">
-        <v>6.012384810847953</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.750819889988975</v>
+        <v>13.63605706703753</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.414683735317689</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.638657967197426</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.268821757887043</v>
+        <v>8.611158823911778</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.446464599738812</v>
+        <v>4.424813390592097</v>
       </c>
       <c r="E5">
-        <v>10.36364265117933</v>
+        <v>9.868072563602359</v>
       </c>
       <c r="F5">
-        <v>23.13415269637123</v>
+        <v>22.29177248072888</v>
       </c>
       <c r="G5">
-        <v>31.9826147729729</v>
+        <v>30.07436502252252</v>
       </c>
       <c r="H5">
-        <v>3.766445415633409</v>
+        <v>3.486186672356807</v>
       </c>
       <c r="I5">
-        <v>4.843978190615877</v>
+        <v>4.445288181734325</v>
       </c>
       <c r="J5">
-        <v>11.04712150587005</v>
+        <v>11.0226738728338</v>
       </c>
       <c r="K5">
-        <v>19.67666956666437</v>
+        <v>18.21948185712166</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.08731512687084</v>
       </c>
       <c r="M5">
-        <v>13.24949062104355</v>
+        <v>12.93063086948038</v>
       </c>
       <c r="N5">
-        <v>5.947479473409532</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.656569442475558</v>
+        <v>13.40566363124156</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.347384569389972</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.545276720087166</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.231507875164088</v>
+        <v>8.576519685573514</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.445636697976841</v>
+        <v>4.423079985655615</v>
       </c>
       <c r="E6">
-        <v>10.3509701592289</v>
+        <v>9.856249643355001</v>
       </c>
       <c r="F6">
-        <v>23.08201000868102</v>
+        <v>22.24781082122712</v>
       </c>
       <c r="G6">
-        <v>31.89630534140019</v>
+        <v>30.00441677649483</v>
       </c>
       <c r="H6">
-        <v>3.775710409044343</v>
+        <v>3.494691845686002</v>
       </c>
       <c r="I6">
-        <v>4.85384213462131</v>
+        <v>4.4547974697579</v>
       </c>
       <c r="J6">
-        <v>11.03575111877844</v>
+        <v>11.01212210647038</v>
       </c>
       <c r="K6">
-        <v>19.65822052279108</v>
+        <v>18.20875767668088</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.07943257861783</v>
       </c>
       <c r="M6">
-        <v>13.22094055078791</v>
+        <v>12.92534447669577</v>
       </c>
       <c r="N6">
-        <v>5.940009306287164</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.639672932355932</v>
+        <v>13.37361725122064</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.338968063709324</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.528672034898934</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.412321831136165</v>
+        <v>8.753153570401194</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.460403008798623</v>
+        <v>4.447790433830753</v>
       </c>
       <c r="E7">
-        <v>10.43886508456324</v>
+        <v>9.944118480230358</v>
       </c>
       <c r="F7">
-        <v>23.28869247341717</v>
+        <v>22.38724995451333</v>
       </c>
       <c r="G7">
-        <v>32.2151039980226</v>
+        <v>30.30892640733469</v>
       </c>
       <c r="H7">
-        <v>3.715726604239334</v>
+        <v>3.440147120424923</v>
       </c>
       <c r="I7">
-        <v>4.811730666064775</v>
+        <v>4.419760307288001</v>
       </c>
       <c r="J7">
-        <v>11.06180662986896</v>
+        <v>10.98616111836754</v>
       </c>
       <c r="K7">
-        <v>19.65442562380092</v>
+        <v>18.1679075081893</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.02473915515549</v>
       </c>
       <c r="M7">
-        <v>13.48000616838151</v>
+        <v>12.89741085519414</v>
       </c>
       <c r="N7">
-        <v>6.020560725414268</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.746458312583746</v>
+        <v>13.64446023366063</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.418985088866684</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.635529165125977</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.18654717319135</v>
+        <v>9.491457856884594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.521339677708839</v>
+        <v>4.546732964181085</v>
       </c>
       <c r="E8">
-        <v>10.81655103522258</v>
+        <v>10.32743098291865</v>
       </c>
       <c r="F8">
-        <v>24.24544603555521</v>
+        <v>23.11409368069147</v>
       </c>
       <c r="G8">
-        <v>33.69358048668795</v>
+        <v>31.59847725205281</v>
       </c>
       <c r="H8">
-        <v>3.459264839130495</v>
+        <v>3.20586751885433</v>
       </c>
       <c r="I8">
-        <v>4.626243516111886</v>
+        <v>4.262754243624268</v>
       </c>
       <c r="J8">
-        <v>11.19995727205671</v>
+        <v>11.00266988389968</v>
       </c>
       <c r="K8">
-        <v>19.67530393740306</v>
+        <v>18.03858295196275</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.83366595067625</v>
       </c>
       <c r="M8">
-        <v>14.55458498774139</v>
+        <v>12.82645509363485</v>
       </c>
       <c r="N8">
-        <v>6.359011183734922</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.205686270610913</v>
+        <v>14.78200606696937</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.762752290129592</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.092362946417966</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.5704158335639</v>
+        <v>10.77899460286414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.630045395763457</v>
+        <v>4.718893790803382</v>
       </c>
       <c r="E9">
-        <v>11.52343705351703</v>
+        <v>11.05685468159872</v>
       </c>
       <c r="F9">
-        <v>26.17983301587047</v>
+        <v>24.72049594177329</v>
       </c>
       <c r="G9">
-        <v>36.66812279101956</v>
+        <v>34.03891090268753</v>
       </c>
       <c r="H9">
-        <v>2.986957282357421</v>
+        <v>2.772994915724758</v>
       </c>
       <c r="I9">
-        <v>4.278023717386349</v>
+        <v>3.965048644769412</v>
       </c>
       <c r="J9">
-        <v>11.52588710462526</v>
+        <v>11.2580127135231</v>
       </c>
       <c r="K9">
-        <v>19.78134903505094</v>
+        <v>17.86875755148571</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.53402614698086</v>
       </c>
       <c r="M9">
-        <v>16.44872479180608</v>
+        <v>12.83082619585381</v>
       </c>
       <c r="N9">
-        <v>6.973858408442481</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.05127614578187</v>
+        <v>16.80588347499409</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.401596822799799</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>9.928090968125215</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.4218820915693</v>
+        <v>11.60795741196196</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.726701405709861</v>
+        <v>4.881582951897316</v>
       </c>
       <c r="E10">
-        <v>12.05160967163959</v>
+        <v>11.61481035178976</v>
       </c>
       <c r="F10">
-        <v>27.34518087741929</v>
+        <v>25.54212887376656</v>
       </c>
       <c r="G10">
-        <v>38.38374742279078</v>
+        <v>35.80574494659988</v>
       </c>
       <c r="H10">
-        <v>2.686901131530423</v>
+        <v>2.502855853967433</v>
       </c>
       <c r="I10">
-        <v>4.049653408772964</v>
+        <v>3.774397687482431</v>
       </c>
       <c r="J10">
-        <v>11.69611910743557</v>
+        <v>11.09080225267328</v>
       </c>
       <c r="K10">
-        <v>19.66545147024165</v>
+        <v>17.55537056494995</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.17426637021233</v>
       </c>
       <c r="M10">
-        <v>17.79332826685248</v>
+        <v>12.74169025607042</v>
       </c>
       <c r="N10">
-        <v>7.299882206494096</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.55063069106349</v>
+        <v>18.19178751175026</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.727761803706053</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.42557186501467</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.34450308076203</v>
+        <v>11.71365409861163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.962994986359369</v>
+        <v>5.184788827167417</v>
       </c>
       <c r="E11">
-        <v>12.79618611282769</v>
+        <v>12.49391043021746</v>
       </c>
       <c r="F11">
-        <v>26.00368642974304</v>
+        <v>24.11695657340055</v>
       </c>
       <c r="G11">
-        <v>35.83917799340795</v>
+        <v>34.41328235065784</v>
       </c>
       <c r="H11">
-        <v>3.434392691070561</v>
+        <v>3.300179851621643</v>
       </c>
       <c r="I11">
-        <v>4.013747572430777</v>
+        <v>3.752528050232447</v>
       </c>
       <c r="J11">
-        <v>11.08196889766158</v>
+        <v>10.02468819874016</v>
       </c>
       <c r="K11">
-        <v>18.17965779087314</v>
+        <v>16.37583172647813</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.28345535813864</v>
       </c>
       <c r="M11">
-        <v>18.89822608915575</v>
+        <v>11.86774285342458</v>
       </c>
       <c r="N11">
-        <v>6.552006741293851</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.08318714069655</v>
+        <v>19.15192978824668</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.908107422067236</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>9.982110522940584</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.12936889325013</v>
+        <v>11.63923587153023</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.168930948252763</v>
+        <v>5.413683934456216</v>
       </c>
       <c r="E12">
-        <v>13.64419888019278</v>
+        <v>13.37279830803776</v>
       </c>
       <c r="F12">
-        <v>24.66673822153014</v>
+        <v>22.87230827133073</v>
       </c>
       <c r="G12">
-        <v>33.40538505329773</v>
+        <v>32.73613771678659</v>
       </c>
       <c r="H12">
-        <v>4.631927278104717</v>
+        <v>4.533538975817004</v>
       </c>
       <c r="I12">
-        <v>4.010921414150316</v>
+        <v>3.751225730385752</v>
       </c>
       <c r="J12">
-        <v>10.54587312334939</v>
+        <v>9.382090751642936</v>
       </c>
       <c r="K12">
-        <v>17.13893773302068</v>
+        <v>15.64273723187687</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.78012214632792</v>
       </c>
       <c r="M12">
-        <v>19.54582449342267</v>
+        <v>11.27360305696248</v>
       </c>
       <c r="N12">
-        <v>5.846890509569422</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.585552361183215</v>
+        <v>19.68274383405002</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.154620101500464</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.501978949973882</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.76008670172243</v>
+        <v>11.38209037122996</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.363934044317869</v>
+        <v>5.584104796987123</v>
       </c>
       <c r="E13">
-        <v>14.57338792315733</v>
+        <v>14.29591927642124</v>
       </c>
       <c r="F13">
-        <v>23.15245133410995</v>
+        <v>21.67267700191069</v>
       </c>
       <c r="G13">
-        <v>30.72757055943797</v>
+        <v>30.43950639565244</v>
       </c>
       <c r="H13">
-        <v>5.955331326089924</v>
+        <v>5.875436689914557</v>
       </c>
       <c r="I13">
-        <v>4.046399372583616</v>
+        <v>3.780400934323876</v>
       </c>
       <c r="J13">
-        <v>10.0090142699148</v>
+        <v>9.077000303312133</v>
       </c>
       <c r="K13">
-        <v>16.34338389777521</v>
+        <v>15.16844457713821</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.48067790904009</v>
       </c>
       <c r="M13">
-        <v>19.92144911369778</v>
+        <v>10.85322632840157</v>
       </c>
       <c r="N13">
-        <v>5.136693769670257</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.021352871429009</v>
+        <v>19.96399405920487</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.415149569153879</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>8.950317884884457</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.42092618668027</v>
+        <v>11.11108250850874</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.49878972732874</v>
+        <v>5.677703440971311</v>
       </c>
       <c r="E14">
-        <v>15.28233739201462</v>
+        <v>14.98610709576525</v>
       </c>
       <c r="F14">
-        <v>21.98625159400683</v>
+        <v>20.82782813835813</v>
       </c>
       <c r="G14">
-        <v>28.69457133755853</v>
+        <v>28.51372826957586</v>
       </c>
       <c r="H14">
-        <v>6.918973814326422</v>
+        <v>6.846623070825202</v>
       </c>
       <c r="I14">
-        <v>4.090586511094467</v>
+        <v>3.817294436788278</v>
       </c>
       <c r="J14">
-        <v>9.629951638558627</v>
+        <v>8.991942359685034</v>
       </c>
       <c r="K14">
-        <v>15.93007609764165</v>
+        <v>14.95748578638094</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.35442166281049</v>
       </c>
       <c r="M14">
-        <v>20.07220028481965</v>
+        <v>10.65179596739006</v>
       </c>
       <c r="N14">
-        <v>4.644424956075072</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.592437361657849</v>
+        <v>20.05641361550056</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.912247978368119</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.527936723469844</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.29714067912693</v>
+        <v>10.99962795286066</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.527545867230095</v>
+        <v>5.68730389279639</v>
       </c>
       <c r="E15">
-        <v>15.44102119636218</v>
+        <v>15.14254669318413</v>
       </c>
       <c r="F15">
-        <v>21.64870404270281</v>
+        <v>20.6125790586313</v>
       </c>
       <c r="G15">
-        <v>28.11863600030912</v>
+        <v>27.89792647585347</v>
       </c>
       <c r="H15">
-        <v>7.147005646582836</v>
+        <v>7.075198774360679</v>
       </c>
       <c r="I15">
-        <v>4.113945734594755</v>
+        <v>3.837788952456488</v>
       </c>
       <c r="J15">
-        <v>9.533171448049531</v>
+        <v>9.022445904910976</v>
       </c>
       <c r="K15">
-        <v>15.85918946018256</v>
+        <v>14.93490415684706</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.33985765725958</v>
       </c>
       <c r="M15">
-        <v>20.05654354613338</v>
+        <v>10.62672779399554</v>
       </c>
       <c r="N15">
-        <v>4.52540429516385</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.472554264693199</v>
+        <v>20.030146919622</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.793435395196219</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.408850478121147</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.98182695524303</v>
+        <v>10.63818699529431</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.445842435679668</v>
+        <v>5.537892882736195</v>
       </c>
       <c r="E16">
-        <v>15.05582247581506</v>
+        <v>14.80415045205971</v>
       </c>
       <c r="F16">
-        <v>21.34543134002839</v>
+        <v>20.65111546444382</v>
       </c>
       <c r="G16">
-        <v>27.71804626623016</v>
+        <v>26.9261817342932</v>
       </c>
       <c r="H16">
-        <v>6.977282961670775</v>
+        <v>6.894061850651299</v>
       </c>
       <c r="I16">
-        <v>4.210405807218156</v>
+        <v>3.917853368996665</v>
       </c>
       <c r="J16">
-        <v>9.550201363459433</v>
+        <v>9.504524108890134</v>
       </c>
       <c r="K16">
-        <v>16.06146961235487</v>
+        <v>15.16291730917909</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.4642562867576</v>
       </c>
       <c r="M16">
-        <v>19.46698520388681</v>
+        <v>10.81741319790868</v>
       </c>
       <c r="N16">
-        <v>4.505662672368786</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.350571567564987</v>
+        <v>19.48039463500521</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.795247215862297</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.279524850132342</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.92417130091802</v>
+        <v>10.51394131179361</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.308754163346971</v>
+        <v>5.381845140383273</v>
       </c>
       <c r="E17">
-        <v>14.3462371883976</v>
+        <v>14.13115184927864</v>
       </c>
       <c r="F17">
-        <v>21.75539559568493</v>
+        <v>21.10784782231806</v>
       </c>
       <c r="G17">
-        <v>28.53369008908632</v>
+        <v>27.33154209950383</v>
       </c>
       <c r="H17">
-        <v>6.310214081902574</v>
+        <v>6.212085323613561</v>
       </c>
       <c r="I17">
-        <v>4.261594928933392</v>
+        <v>3.96070465657342</v>
       </c>
       <c r="J17">
-        <v>9.765615082358547</v>
+        <v>9.876838009033733</v>
       </c>
       <c r="K17">
-        <v>16.41202038536027</v>
+        <v>15.44886392266148</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.6485180098002</v>
       </c>
       <c r="M17">
-        <v>18.92068374520582</v>
+        <v>11.05169598167616</v>
       </c>
       <c r="N17">
-        <v>4.753545826485669</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.490101917983566</v>
+        <v>18.98978719765246</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.062230738509534</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.41099788603956</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.10173048064012</v>
+        <v>10.58823442224934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.115800157925601</v>
+        <v>5.196005946645292</v>
       </c>
       <c r="E18">
-        <v>13.36912564702893</v>
+        <v>13.17400499525664</v>
       </c>
       <c r="F18">
-        <v>22.85389681033598</v>
+        <v>22.05949151245725</v>
       </c>
       <c r="G18">
-        <v>30.54069133787796</v>
+        <v>28.88516730358957</v>
       </c>
       <c r="H18">
-        <v>5.188362396779995</v>
+        <v>5.06649158306991</v>
       </c>
       <c r="I18">
-        <v>4.268091584361552</v>
+        <v>3.963378895336607</v>
       </c>
       <c r="J18">
-        <v>10.18910756584424</v>
+        <v>10.29672033533593</v>
       </c>
       <c r="K18">
-        <v>17.04605759394779</v>
+        <v>15.90827074876106</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.98053864140664</v>
       </c>
       <c r="M18">
-        <v>18.34566889654037</v>
+        <v>11.410553785706</v>
       </c>
       <c r="N18">
-        <v>5.274998861615273</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8.876334817475549</v>
+        <v>18.50101850650921</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.611196649846568</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.785738564814286</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.41515322935002</v>
+        <v>10.77814691149644</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.921746373723087</v>
+        <v>5.017277122203302</v>
       </c>
       <c r="E19">
-        <v>12.48333515007862</v>
+        <v>12.25108965781218</v>
       </c>
       <c r="F19">
-        <v>24.33120467621148</v>
+        <v>23.28182054826229</v>
       </c>
       <c r="G19">
-        <v>33.19102953717151</v>
+        <v>31.04571170279333</v>
       </c>
       <c r="H19">
-        <v>3.933155220723678</v>
+        <v>3.775666324943091</v>
       </c>
       <c r="I19">
-        <v>4.249310997092119</v>
+        <v>3.948507365407182</v>
       </c>
       <c r="J19">
-        <v>10.72530869037256</v>
+        <v>10.74189654975225</v>
       </c>
       <c r="K19">
-        <v>17.9469469846921</v>
+        <v>16.53050426483259</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.4495756945661</v>
       </c>
       <c r="M19">
-        <v>17.83748047992597</v>
+        <v>11.88650192903307</v>
       </c>
       <c r="N19">
-        <v>6.008645181641248</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.428230278817706</v>
+        <v>18.09395251339902</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.38093421253919</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.323773652287864</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.14450219757808</v>
+        <v>11.32722248655113</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.712719000791819</v>
+        <v>4.839426710540696</v>
       </c>
       <c r="E20">
-        <v>11.91949847033033</v>
+        <v>11.4954031571437</v>
       </c>
       <c r="F20">
-        <v>26.90151619111968</v>
+        <v>25.30555519165339</v>
       </c>
       <c r="G20">
-        <v>37.68899318098118</v>
+        <v>34.93258827235247</v>
       </c>
       <c r="H20">
-        <v>2.767499516522835</v>
+        <v>2.573721213553836</v>
       </c>
       <c r="I20">
-        <v>4.13405088573078</v>
+        <v>3.852445338492415</v>
       </c>
       <c r="J20">
-        <v>11.59867541321982</v>
+        <v>11.27113314412425</v>
       </c>
       <c r="K20">
-        <v>19.56631294443636</v>
+        <v>17.57186633856136</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.2174238402389</v>
       </c>
       <c r="M20">
-        <v>17.5004615394813</v>
+        <v>12.71248508510595</v>
       </c>
       <c r="N20">
-        <v>7.234254678778437</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.41016681480598</v>
+        <v>17.90071159080372</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.665393267928248</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.28448101110296</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.85420474376189</v>
+        <v>12.08071882850849</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.755372342861162</v>
+        <v>4.994867059866989</v>
       </c>
       <c r="E21">
-        <v>12.28048452058325</v>
+        <v>11.78806340248516</v>
       </c>
       <c r="F21">
-        <v>28.1434493764933</v>
+        <v>25.71748272397281</v>
       </c>
       <c r="G21">
-        <v>39.62100577451109</v>
+        <v>37.82310540284637</v>
       </c>
       <c r="H21">
-        <v>2.500048076061077</v>
+        <v>2.336782875407852</v>
       </c>
       <c r="I21">
-        <v>3.948640033125113</v>
+        <v>3.701926178548755</v>
       </c>
       <c r="J21">
-        <v>11.86652334911948</v>
+        <v>10.33726497083847</v>
       </c>
       <c r="K21">
-        <v>19.76416921724325</v>
+        <v>17.36220244871423</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.97596326514043</v>
       </c>
       <c r="M21">
-        <v>18.39573221508185</v>
+        <v>12.67496942147757</v>
       </c>
       <c r="N21">
-        <v>7.635037350438867</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>10.90489385858873</v>
+        <v>18.75567498242735</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.039672156056183</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.78623033572175</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.29541251865038</v>
+        <v>12.56032458244157</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.787750811085078</v>
+        <v>5.107974465759528</v>
       </c>
       <c r="E22">
-        <v>12.52640519918738</v>
+        <v>11.99957084785858</v>
       </c>
       <c r="F22">
-        <v>28.88996213793265</v>
+        <v>25.91092961454152</v>
       </c>
       <c r="G22">
-        <v>40.76536716933837</v>
+        <v>39.68440574417642</v>
       </c>
       <c r="H22">
-        <v>2.340471216492029</v>
+        <v>2.196839650028825</v>
       </c>
       <c r="I22">
-        <v>3.82322097909548</v>
+        <v>3.596673761038792</v>
       </c>
       <c r="J22">
-        <v>12.02402495924577</v>
+        <v>9.683301592147741</v>
       </c>
       <c r="K22">
-        <v>19.8574140283876</v>
+        <v>17.19023521100577</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.79780446838178</v>
       </c>
       <c r="M22">
-        <v>18.97113312173536</v>
+        <v>12.62851903165766</v>
       </c>
       <c r="N22">
-        <v>7.828245343247811</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.18212170066708</v>
+        <v>19.29529463642682</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.211799832938912</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.06914855253272</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.08259691493539</v>
+        <v>12.31241275009594</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.766560534777287</v>
+        <v>5.033729712340782</v>
       </c>
       <c r="E23">
-        <v>12.39387099735128</v>
+        <v>11.88843384830284</v>
       </c>
       <c r="F23">
-        <v>28.53879487623432</v>
+        <v>25.91792890786558</v>
       </c>
       <c r="G23">
-        <v>40.23850528156097</v>
+        <v>38.62335021920754</v>
       </c>
       <c r="H23">
-        <v>2.424290763717116</v>
+        <v>2.269428808626984</v>
       </c>
       <c r="I23">
-        <v>3.880124247857075</v>
+        <v>3.640345864961445</v>
       </c>
       <c r="J23">
-        <v>11.95740089052104</v>
+        <v>10.161718172347</v>
       </c>
       <c r="K23">
-        <v>19.85397199956439</v>
+        <v>17.33921405159305</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.93226064556953</v>
       </c>
       <c r="M23">
-        <v>18.64814514334867</v>
+        <v>12.69947580429247</v>
       </c>
       <c r="N23">
-        <v>7.717008470904944</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.03793683821044</v>
+        <v>19.00525384652615</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.118199576281084</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>10.9198537025263</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.20527761310726</v>
+        <v>11.37061685154141</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.691340756735985</v>
+        <v>4.816032558515417</v>
       </c>
       <c r="E24">
-        <v>11.89049261131916</v>
+        <v>11.44140799192115</v>
       </c>
       <c r="F24">
-        <v>27.12384338823191</v>
+        <v>25.49552302388828</v>
       </c>
       <c r="G24">
-        <v>38.0890744735421</v>
+        <v>35.25671084951216</v>
       </c>
       <c r="H24">
-        <v>2.749314150838832</v>
+        <v>2.555554149645111</v>
       </c>
       <c r="I24">
-        <v>4.116595944406988</v>
+        <v>3.832417802524772</v>
       </c>
       <c r="J24">
-        <v>11.6841814941298</v>
+        <v>11.34886261632637</v>
       </c>
       <c r="K24">
-        <v>19.76781544808086</v>
+        <v>17.71936467733486</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.32991984779887</v>
       </c>
       <c r="M24">
-        <v>17.41121923514298</v>
+        <v>12.82395323268412</v>
       </c>
       <c r="N24">
-        <v>7.298821557144172</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.47037500131616</v>
+        <v>17.82412221160138</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.736968112260252</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.34237128086035</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17840170290178</v>
+        <v>10.40953854095142</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.606956437141832</v>
+        <v>4.674712565066373</v>
       </c>
       <c r="E25">
-        <v>11.33685529982001</v>
+        <v>10.8731881070261</v>
       </c>
       <c r="F25">
-        <v>25.58130369057211</v>
+        <v>24.26060335560722</v>
       </c>
       <c r="G25">
-        <v>35.7319220387887</v>
+        <v>33.17436127943832</v>
       </c>
       <c r="H25">
-        <v>3.113251393266196</v>
+        <v>2.888004544081554</v>
       </c>
       <c r="I25">
-        <v>4.383263705514548</v>
+        <v>4.058776904612222</v>
       </c>
       <c r="J25">
-        <v>11.40622420019856</v>
+        <v>11.23833103705819</v>
       </c>
       <c r="K25">
-        <v>19.68080501319985</v>
+        <v>17.87305160226092</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.58138898311629</v>
       </c>
       <c r="M25">
-        <v>15.98650009403273</v>
+        <v>12.79014215174083</v>
       </c>
       <c r="N25">
-        <v>6.8260530591651</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.824425870624152</v>
+        <v>16.31524394099105</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.24790866040619</v>
       </c>
       <c r="Q25">
+        <v>9.703707305267503</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
